--- a/Enape Field Description_2021_fd.xlsx
+++ b/Enape Field Description_2021_fd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\###_ ML Zoomcamp 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD13C0-56F0-49C9-BDD8-CF655D54EF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52D58BA-2222-4D7D-B7AB-E1003F8A57F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="550" yWindow="3220" windowWidth="19080" windowHeight="17380" activeTab="1" xr2:uid="{EA2ECD93-FEE0-44DD-96DC-0A74769DCBD3}"/>
+    <workbookView xWindow="290" yWindow="0" windowWidth="15800" windowHeight="21000" activeTab="1" xr2:uid="{EA2ECD93-FEE0-44DD-96DC-0A74769DCBD3}"/>
   </bookViews>
   <sheets>
     <sheet name="TVivienda" sheetId="2" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1926,6 +1926,30 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1934,15 +1958,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1953,43 +1968,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,50 +2031,29 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2552,45 +2546,45 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -2877,16 +2871,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="36">
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -2898,10 +2892,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="9" t="s">
         <v>42</v>
       </c>
@@ -2911,16 +2905,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="34">
         <v>1</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -2932,10 +2926,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2945,10 +2939,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="9" t="s">
         <v>46</v>
       </c>
@@ -2958,16 +2952,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="34">
         <v>1</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -2979,10 +2973,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="9" t="s">
         <v>42</v>
       </c>
@@ -2992,10 +2986,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="9" t="s">
         <v>46</v>
       </c>
@@ -3005,16 +2999,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="34">
         <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -3026,10 +3020,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="9" t="s">
         <v>42</v>
       </c>
@@ -3039,10 +3033,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="9" t="s">
         <v>46</v>
       </c>
@@ -3052,16 +3046,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="34">
         <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -3073,10 +3067,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="9" t="s">
         <v>42</v>
       </c>
@@ -3086,10 +3080,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="9" t="s">
         <v>46</v>
       </c>
@@ -3099,16 +3093,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="34">
         <v>1</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -3120,10 +3114,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="9" t="s">
         <v>42</v>
       </c>
@@ -3133,10 +3127,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="9" t="s">
         <v>46</v>
       </c>
@@ -3146,16 +3140,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="34">
         <v>1</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -3167,10 +3161,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="9" t="s">
         <v>42</v>
       </c>
@@ -3180,10 +3174,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="9" t="s">
         <v>46</v>
       </c>
@@ -3193,16 +3187,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="34">
         <v>2</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -3214,10 +3208,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="9" t="s">
         <v>60</v>
       </c>
@@ -3227,10 +3221,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="9" t="s">
         <v>62</v>
       </c>
@@ -3240,10 +3234,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="9" t="s">
         <v>64</v>
       </c>
@@ -3253,10 +3247,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="9" t="s">
         <v>66</v>
       </c>
@@ -3266,10 +3260,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="9" t="s">
         <v>68</v>
       </c>
@@ -3279,10 +3273,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="9" t="s">
         <v>70</v>
       </c>
@@ -3292,10 +3286,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="9" t="s">
         <v>71</v>
       </c>
@@ -3305,10 +3299,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="9" t="s">
         <v>73</v>
       </c>
@@ -3318,10 +3312,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="9" t="s">
         <v>75</v>
       </c>
@@ -3331,10 +3325,10 @@
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="20" t="s">
         <v>46</v>
       </c>
@@ -3406,16 +3400,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E60" s="36">
         <v>1</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -3427,10 +3421,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="39"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="9" t="s">
         <v>42</v>
       </c>
@@ -3440,10 +3434,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="39"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="9" t="s">
         <v>82</v>
       </c>
@@ -3453,10 +3447,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="9" t="s">
         <v>84</v>
       </c>
@@ -3466,10 +3460,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="9" t="s">
         <v>86</v>
       </c>
@@ -3479,10 +3473,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="39"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="9" t="s">
         <v>46</v>
       </c>
@@ -3492,16 +3486,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E66" s="36">
         <v>1</v>
       </c>
       <c r="F66" s="9" t="s">
@@ -3513,10 +3507,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="39"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="9" t="s">
         <v>42</v>
       </c>
@@ -3526,10 +3520,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="39"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="9" t="s">
         <v>82</v>
       </c>
@@ -3539,10 +3533,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="9" t="s">
         <v>84</v>
       </c>
@@ -3552,10 +3546,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="39"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="9" t="s">
         <v>86</v>
       </c>
@@ -3565,10 +3559,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="9" t="s">
         <v>46</v>
       </c>
@@ -3578,16 +3572,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="36">
         <v>1</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -3599,10 +3593,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="39"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="9" t="s">
         <v>42</v>
       </c>
@@ -3612,10 +3606,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="39"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="9" t="s">
         <v>82</v>
       </c>
@@ -3625,10 +3619,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="39"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="9" t="s">
         <v>84</v>
       </c>
@@ -3638,10 +3632,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="39"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="9" t="s">
         <v>86</v>
       </c>
@@ -3651,10 +3645,10 @@
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="43"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="37"/>
       <c r="F77" s="20" t="s">
         <v>46</v>
       </c>
@@ -4073,6 +4067,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="C45:C55"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
     <mergeCell ref="B72:B77"/>
     <mergeCell ref="C72:C77"/>
     <mergeCell ref="D72:D77"/>
@@ -4085,42 +4115,6 @@
     <mergeCell ref="C66:C71"/>
     <mergeCell ref="D66:D71"/>
     <mergeCell ref="E66:E71"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="C45:C55"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4132,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C302DC3-631D-4CE1-BFDC-A5A456B26CB4}">
   <dimension ref="A1:G519"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C429" sqref="C429:C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4153,45 +4147,45 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -4438,16 +4432,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -4459,10 +4453,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="9" t="s">
         <v>42</v>
       </c>
@@ -4555,16 +4549,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="71">
         <v>2</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -4576,10 +4570,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="9" t="s">
         <v>60</v>
       </c>
@@ -4589,10 +4583,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="9" t="s">
         <v>62</v>
       </c>
@@ -4602,10 +4596,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="9" t="s">
         <v>64</v>
       </c>
@@ -4615,10 +4609,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="9" t="s">
         <v>66</v>
       </c>
@@ -4628,10 +4622,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
       <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
@@ -4641,10 +4635,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="9" t="s">
         <v>70</v>
       </c>
@@ -4654,10 +4648,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
@@ -4667,10 +4661,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="9" t="s">
         <v>73</v>
       </c>
@@ -4680,10 +4674,10 @@
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="20" t="s">
         <v>129</v>
       </c>
@@ -4755,16 +4749,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="71">
         <v>1</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -4776,10 +4770,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="9" t="s">
         <v>42</v>
       </c>
@@ -4789,10 +4783,10 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="20" t="s">
         <v>46</v>
       </c>
@@ -4864,16 +4858,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="68">
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -4885,10 +4879,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="9" t="s">
         <v>42</v>
       </c>
@@ -4898,10 +4892,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="9" t="s">
         <v>46</v>
       </c>
@@ -4911,16 +4905,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="34">
         <v>1</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -4932,10 +4926,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="9" t="s">
         <v>42</v>
       </c>
@@ -4945,10 +4939,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="9" t="s">
         <v>46</v>
       </c>
@@ -4958,16 +4952,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="34">
         <v>2</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -4979,10 +4973,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="9" t="s">
         <v>60</v>
       </c>
@@ -4992,10 +4986,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="9" t="s">
         <v>62</v>
       </c>
@@ -5005,10 +4999,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="9" t="s">
         <v>64</v>
       </c>
@@ -5018,10 +5012,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="9" t="s">
         <v>66</v>
       </c>
@@ -5031,10 +5025,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="9" t="s">
         <v>68</v>
       </c>
@@ -5044,10 +5038,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="9" t="s">
         <v>70</v>
       </c>
@@ -5057,10 +5051,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="9" t="s">
         <v>71</v>
       </c>
@@ -5070,10 +5064,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="9" t="s">
         <v>73</v>
       </c>
@@ -5083,10 +5077,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="9" t="s">
         <v>129</v>
       </c>
@@ -5096,10 +5090,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="9" t="s">
         <v>152</v>
       </c>
@@ -5109,10 +5103,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
       <c r="F68" s="9" t="s">
         <v>154</v>
       </c>
@@ -5122,10 +5116,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="9" t="s">
         <v>46</v>
       </c>
@@ -5135,16 +5129,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="34">
         <v>2</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -5156,10 +5150,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="9" t="s">
         <v>46</v>
       </c>
@@ -5169,16 +5163,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="69" t="s">
+      <c r="B72" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="34">
         <v>2</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -5190,10 +5184,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="9" t="s">
         <v>46</v>
       </c>
@@ -5203,16 +5197,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="69" t="s">
+      <c r="B74" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="34">
         <v>2</v>
       </c>
       <c r="F74" s="9" t="s">
@@ -5224,10 +5218,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
       <c r="F75" s="9" t="s">
         <v>46</v>
       </c>
@@ -5237,16 +5231,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="34">
         <v>2</v>
       </c>
       <c r="F76" s="9" t="s">
@@ -5258,10 +5252,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
       <c r="F77" s="9" t="s">
         <v>46</v>
       </c>
@@ -5271,16 +5265,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="34">
         <v>2</v>
       </c>
       <c r="F78" s="9" t="s">
@@ -5292,10 +5286,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="9" t="s">
         <v>176</v>
       </c>
@@ -5305,10 +5299,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="9" t="s">
         <v>46</v>
       </c>
@@ -5318,16 +5312,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="69" t="s">
+      <c r="B81" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="34">
         <v>1</v>
       </c>
       <c r="F81" s="9">
@@ -5339,10 +5333,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
       <c r="F82" s="9">
         <v>9</v>
       </c>
@@ -5352,10 +5346,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="9" t="s">
         <v>46</v>
       </c>
@@ -5365,16 +5359,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="66">
         <v>1</v>
       </c>
       <c r="F84" s="9" t="s">
@@ -5386,10 +5380,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="9" t="s">
         <v>42</v>
       </c>
@@ -5399,10 +5393,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="9" t="s">
         <v>46</v>
       </c>
@@ -5412,16 +5406,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="D87" s="53" t="s">
+      <c r="D87" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="51">
+      <c r="E87" s="66">
         <v>2</v>
       </c>
       <c r="F87" s="9" t="s">
@@ -5433,10 +5427,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="51"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="9" t="s">
         <v>60</v>
       </c>
@@ -5446,10 +5440,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="51"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="9" t="s">
         <v>62</v>
       </c>
@@ -5459,10 +5453,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="51"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="66"/>
       <c r="F90" s="9" t="s">
         <v>64</v>
       </c>
@@ -5472,10 +5466,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="51"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="66"/>
       <c r="F91" s="9" t="s">
         <v>66</v>
       </c>
@@ -5485,10 +5479,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="51"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="66"/>
       <c r="F92" s="9" t="s">
         <v>68</v>
       </c>
@@ -5498,10 +5492,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="51"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="9" t="s">
         <v>70</v>
       </c>
@@ -5511,10 +5505,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="51"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="66"/>
       <c r="F94" s="9" t="s">
         <v>71</v>
       </c>
@@ -5524,10 +5518,10 @@
     </row>
     <row r="95" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="51"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="66"/>
       <c r="F95" s="9" t="s">
         <v>73</v>
       </c>
@@ -5537,10 +5531,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="51"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="9" t="s">
         <v>129</v>
       </c>
@@ -5550,10 +5544,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="51"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="9" t="s">
         <v>152</v>
       </c>
@@ -5563,10 +5557,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="51"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="66"/>
       <c r="F98" s="9" t="s">
         <v>154</v>
       </c>
@@ -5576,10 +5570,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="51"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="66"/>
       <c r="F99" s="9" t="s">
         <v>193</v>
       </c>
@@ -5589,10 +5583,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="51"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="66"/>
       <c r="F100" s="9" t="s">
         <v>195</v>
       </c>
@@ -5602,10 +5596,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="51"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="66"/>
       <c r="F101" s="9" t="s">
         <v>46</v>
       </c>
@@ -5615,16 +5609,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="53" t="s">
+      <c r="D102" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="35">
+      <c r="E102" s="34">
         <v>1</v>
       </c>
       <c r="F102" s="9" t="s">
@@ -5636,10 +5630,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="35"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="9" t="s">
         <v>42</v>
       </c>
@@ -5649,10 +5643,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="35"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="34"/>
       <c r="F104" s="9" t="s">
         <v>82</v>
       </c>
@@ -5662,10 +5656,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="35"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="34"/>
       <c r="F105" s="9" t="s">
         <v>84</v>
       </c>
@@ -5675,10 +5669,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="35"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="9" t="s">
         <v>46</v>
       </c>
@@ -5688,16 +5682,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D107" s="53" t="s">
+      <c r="D107" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E107" s="35">
+      <c r="E107" s="34">
         <v>1</v>
       </c>
       <c r="F107" s="9" t="s">
@@ -5709,10 +5703,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="35"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="9" t="s">
         <v>42</v>
       </c>
@@ -5722,10 +5716,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="35"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="34"/>
       <c r="F109" s="9" t="s">
         <v>86</v>
       </c>
@@ -5735,10 +5729,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="35"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="34"/>
       <c r="F110" s="9" t="s">
         <v>46</v>
       </c>
@@ -5748,16 +5742,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D111" s="53" t="s">
+      <c r="D111" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="35">
+      <c r="E111" s="34">
         <v>1</v>
       </c>
       <c r="F111" s="9" t="s">
@@ -5769,10 +5763,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="35"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="34"/>
       <c r="F112" s="9" t="s">
         <v>42</v>
       </c>
@@ -5782,10 +5776,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="35"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="34"/>
       <c r="F113" s="9" t="s">
         <v>86</v>
       </c>
@@ -5795,10 +5789,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="35"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="34"/>
       <c r="F114" s="9" t="s">
         <v>46</v>
       </c>
@@ -5808,16 +5802,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C115" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D115" s="53" t="s">
+      <c r="D115" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="35">
+      <c r="E115" s="34">
         <v>1</v>
       </c>
       <c r="F115" s="9" t="s">
@@ -5829,10 +5823,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="35"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="34"/>
       <c r="F116" s="9" t="s">
         <v>42</v>
       </c>
@@ -5842,10 +5836,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="35"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="34"/>
       <c r="F117" s="9" t="s">
         <v>86</v>
       </c>
@@ -5855,10 +5849,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="35"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="34"/>
       <c r="F118" s="9" t="s">
         <v>46</v>
       </c>
@@ -5868,16 +5862,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
-      <c r="B119" s="71" t="s">
+      <c r="B119" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E119" s="35">
+      <c r="E119" s="34">
         <v>1</v>
       </c>
       <c r="F119" s="9" t="s">
@@ -5889,10 +5883,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
       <c r="F120" s="9" t="s">
         <v>42</v>
       </c>
@@ -5902,10 +5896,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
       <c r="F121" s="9" t="s">
         <v>46</v>
       </c>
@@ -5915,16 +5909,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
-      <c r="B122" s="71" t="s">
+      <c r="B122" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="35">
+      <c r="E122" s="34">
         <v>1</v>
       </c>
       <c r="F122" s="9" t="s">
@@ -5936,10 +5930,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
       <c r="F123" s="9" t="s">
         <v>42</v>
       </c>
@@ -5949,10 +5943,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="9" t="s">
         <v>46</v>
       </c>
@@ -5962,16 +5956,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
-      <c r="B125" s="71" t="s">
+      <c r="B125" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D125" s="35" t="s">
+      <c r="D125" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="35">
+      <c r="E125" s="34">
         <v>1</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -5983,10 +5977,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="9" t="s">
         <v>42</v>
       </c>
@@ -5996,10 +5990,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
-      <c r="B127" s="71"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
       <c r="F127" s="9" t="s">
         <v>46</v>
       </c>
@@ -6009,16 +6003,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
-      <c r="B128" s="71" t="s">
+      <c r="B128" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="D128" s="35" t="s">
+      <c r="D128" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="35">
+      <c r="E128" s="34">
         <v>1</v>
       </c>
       <c r="F128" s="9" t="s">
@@ -6030,10 +6024,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
       <c r="F129" s="9" t="s">
         <v>42</v>
       </c>
@@ -6043,10 +6037,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="9" t="s">
         <v>46</v>
       </c>
@@ -6056,16 +6050,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
-      <c r="B131" s="71" t="s">
+      <c r="B131" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="35">
+      <c r="E131" s="34">
         <v>1</v>
       </c>
       <c r="F131" s="9" t="s">
@@ -6077,10 +6071,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
-      <c r="B132" s="71"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
       <c r="F132" s="9" t="s">
         <v>42</v>
       </c>
@@ -6090,10 +6084,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
-      <c r="B133" s="71"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
       <c r="F133" s="9" t="s">
         <v>46</v>
       </c>
@@ -6103,16 +6097,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
-      <c r="B134" s="71" t="s">
+      <c r="B134" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D134" s="35" t="s">
+      <c r="D134" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="35">
+      <c r="E134" s="34">
         <v>1</v>
       </c>
       <c r="F134" s="9" t="s">
@@ -6124,10 +6118,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
-      <c r="B135" s="71"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
       <c r="F135" s="9" t="s">
         <v>42</v>
       </c>
@@ -6137,10 +6131,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
-      <c r="B136" s="71"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
       <c r="F136" s="9" t="s">
         <v>46</v>
       </c>
@@ -6150,16 +6144,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
-      <c r="B137" s="71" t="s">
+      <c r="B137" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D137" s="35" t="s">
+      <c r="D137" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E137" s="35">
+      <c r="E137" s="34">
         <v>1</v>
       </c>
       <c r="F137" s="9" t="s">
@@ -6171,10 +6165,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
-      <c r="B138" s="71"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
       <c r="F138" s="9" t="s">
         <v>42</v>
       </c>
@@ -6184,10 +6178,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
       <c r="F139" s="9" t="s">
         <v>46</v>
       </c>
@@ -6197,16 +6191,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
-      <c r="B140" s="71" t="s">
+      <c r="B140" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="C140" s="34" t="s">
+      <c r="C140" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D140" s="35" t="s">
+      <c r="D140" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="35">
+      <c r="E140" s="34">
         <v>1</v>
       </c>
       <c r="F140" s="9" t="s">
@@ -6218,10 +6212,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
-      <c r="B141" s="71"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
       <c r="F141" s="9" t="s">
         <v>42</v>
       </c>
@@ -6231,10 +6225,10 @@
     </row>
     <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="42"/>
-      <c r="E142" s="42"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
       <c r="F142" s="20" t="s">
         <v>46</v>
       </c>
@@ -6306,16 +6300,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
-      <c r="B147" s="33" t="s">
+      <c r="B147" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C147" s="52" t="s">
+      <c r="C147" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D147" s="53" t="s">
+      <c r="D147" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E147" s="53">
+      <c r="E147" s="58">
         <v>1</v>
       </c>
       <c r="F147" s="9" t="s">
@@ -6327,10 +6321,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="53"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="58"/>
       <c r="F148" s="9" t="s">
         <v>42</v>
       </c>
@@ -6340,10 +6334,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="53"/>
-      <c r="E149" s="53"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="58"/>
       <c r="F149" s="9" t="s">
         <v>46</v>
       </c>
@@ -6353,16 +6347,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C150" s="52" t="s">
+      <c r="C150" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="D150" s="53" t="s">
+      <c r="D150" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E150" s="53">
+      <c r="E150" s="58">
         <v>2</v>
       </c>
       <c r="F150" s="9" t="s">
@@ -6374,10 +6368,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="53"/>
-      <c r="E151" s="53"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
       <c r="F151" s="9" t="s">
         <v>60</v>
       </c>
@@ -6387,10 +6381,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="53"/>
-      <c r="E152" s="53"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
       <c r="F152" s="9" t="s">
         <v>62</v>
       </c>
@@ -6400,10 +6394,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="58"/>
       <c r="F153" s="9" t="s">
         <v>64</v>
       </c>
@@ -6413,10 +6407,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="53"/>
-      <c r="E154" s="53"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="58"/>
       <c r="F154" s="9" t="s">
         <v>66</v>
       </c>
@@ -6426,10 +6420,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="53"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="58"/>
       <c r="F155" s="9" t="s">
         <v>68</v>
       </c>
@@ -6439,10 +6433,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="53"/>
-      <c r="E156" s="53"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="58"/>
       <c r="F156" s="9" t="s">
         <v>70</v>
       </c>
@@ -6452,10 +6446,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="52"/>
-      <c r="D157" s="53"/>
-      <c r="E157" s="53"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
       <c r="F157" s="9" t="s">
         <v>71</v>
       </c>
@@ -6465,10 +6459,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
       <c r="F158" s="9" t="s">
         <v>73</v>
       </c>
@@ -6478,10 +6472,10 @@
     </row>
     <row r="159" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="52"/>
-      <c r="D159" s="53"/>
-      <c r="E159" s="53"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
       <c r="F159" s="9" t="s">
         <v>129</v>
       </c>
@@ -6491,10 +6485,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="52"/>
-      <c r="D160" s="53"/>
-      <c r="E160" s="53"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="58"/>
       <c r="F160" s="9" t="s">
         <v>152</v>
       </c>
@@ -6504,10 +6498,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="58"/>
       <c r="F161" s="9" t="s">
         <v>154</v>
       </c>
@@ -6517,10 +6511,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="53"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="58"/>
       <c r="F162" s="9" t="s">
         <v>193</v>
       </c>
@@ -6530,10 +6524,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="52"/>
-      <c r="D163" s="53"/>
-      <c r="E163" s="53"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
       <c r="F163" s="9" t="s">
         <v>195</v>
       </c>
@@ -6543,10 +6537,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
-      <c r="B164" s="33"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="53"/>
-      <c r="E164" s="53"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="58"/>
       <c r="F164" s="9" t="s">
         <v>232</v>
       </c>
@@ -6556,10 +6550,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="53"/>
-      <c r="E165" s="53"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="58"/>
       <c r="F165" s="9" t="s">
         <v>233</v>
       </c>
@@ -6569,10 +6563,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="53"/>
-      <c r="E166" s="53"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="58"/>
+      <c r="E166" s="58"/>
       <c r="F166" s="9" t="s">
         <v>46</v>
       </c>
@@ -6582,16 +6576,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
-      <c r="B167" s="33" t="s">
+      <c r="B167" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="52" t="s">
+      <c r="C167" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="D167" s="53" t="s">
+      <c r="D167" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E167" s="53">
+      <c r="E167" s="58">
         <v>1</v>
       </c>
       <c r="F167" s="9" t="s">
@@ -6603,10 +6597,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="52"/>
-      <c r="D168" s="53"/>
-      <c r="E168" s="53"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
       <c r="F168" s="9" t="s">
         <v>42</v>
       </c>
@@ -6616,10 +6610,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="53"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
       <c r="F169" s="9" t="s">
         <v>46</v>
       </c>
@@ -6629,16 +6623,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
-      <c r="B170" s="33" t="s">
+      <c r="B170" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C170" s="52" t="s">
+      <c r="C170" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="D170" s="53" t="s">
+      <c r="D170" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E170" s="53">
+      <c r="E170" s="58">
         <v>1</v>
       </c>
       <c r="F170" s="9" t="s">
@@ -6650,10 +6644,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="52"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="53"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="58"/>
       <c r="F171" s="9" t="s">
         <v>42</v>
       </c>
@@ -6663,10 +6657,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="52"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="53"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="58"/>
       <c r="F172" s="9" t="s">
         <v>46</v>
       </c>
@@ -6676,16 +6670,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="52" t="s">
+      <c r="C173" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="D173" s="53" t="s">
+      <c r="D173" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E173" s="53">
+      <c r="E173" s="58">
         <v>2</v>
       </c>
       <c r="F173" s="9" t="s">
@@ -6697,10 +6691,10 @@
     </row>
     <row r="174" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="52"/>
-      <c r="D174" s="53"/>
-      <c r="E174" s="53"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
       <c r="F174" s="9" t="s">
         <v>60</v>
       </c>
@@ -6710,10 +6704,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="52"/>
-      <c r="D175" s="53"/>
-      <c r="E175" s="53"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
       <c r="F175" s="9" t="s">
         <v>62</v>
       </c>
@@ -6723,10 +6717,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="52"/>
-      <c r="D176" s="53"/>
-      <c r="E176" s="53"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
       <c r="F176" s="9" t="s">
         <v>64</v>
       </c>
@@ -6736,10 +6730,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="52"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
       <c r="F177" s="9" t="s">
         <v>66</v>
       </c>
@@ -6749,10 +6743,10 @@
     </row>
     <row r="178" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
       <c r="F178" s="9" t="s">
         <v>68</v>
       </c>
@@ -6762,10 +6756,10 @@
     </row>
     <row r="179" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="52"/>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="58"/>
       <c r="F179" s="9" t="s">
         <v>70</v>
       </c>
@@ -6775,10 +6769,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="52"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="58"/>
       <c r="F180" s="9" t="s">
         <v>71</v>
       </c>
@@ -6788,10 +6782,10 @@
     </row>
     <row r="181" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="52"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
+      <c r="B181" s="30"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
       <c r="F181" s="9" t="s">
         <v>73</v>
       </c>
@@ -6801,10 +6795,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="52"/>
-      <c r="D182" s="53"/>
-      <c r="E182" s="53"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="58"/>
       <c r="F182" s="9" t="s">
         <v>129</v>
       </c>
@@ -6814,10 +6808,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="52"/>
-      <c r="D183" s="53"/>
-      <c r="E183" s="53"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
       <c r="F183" s="9" t="s">
         <v>152</v>
       </c>
@@ -6827,10 +6821,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="52"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="53"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="58"/>
       <c r="F184" s="9" t="s">
         <v>46</v>
       </c>
@@ -6840,16 +6834,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C185" s="52" t="s">
+      <c r="C185" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="D185" s="53" t="s">
+      <c r="D185" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E185" s="53">
+      <c r="E185" s="58">
         <v>2</v>
       </c>
       <c r="F185" s="9" t="s">
@@ -6861,10 +6855,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="52"/>
-      <c r="D186" s="53"/>
-      <c r="E186" s="53"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
       <c r="F186" s="9" t="s">
         <v>60</v>
       </c>
@@ -6874,10 +6868,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="52"/>
-      <c r="D187" s="53"/>
-      <c r="E187" s="53"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="58"/>
       <c r="F187" s="9" t="s">
         <v>62</v>
       </c>
@@ -6887,10 +6881,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="52"/>
-      <c r="D188" s="53"/>
-      <c r="E188" s="53"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
       <c r="F188" s="9" t="s">
         <v>64</v>
       </c>
@@ -6900,10 +6894,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="52"/>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="58"/>
+      <c r="E189" s="58"/>
       <c r="F189" s="9" t="s">
         <v>66</v>
       </c>
@@ -6913,10 +6907,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="53"/>
-      <c r="E190" s="53"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
       <c r="F190" s="9" t="s">
         <v>68</v>
       </c>
@@ -6926,10 +6920,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="52"/>
-      <c r="D191" s="53"/>
-      <c r="E191" s="53"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
       <c r="F191" s="9" t="s">
         <v>70</v>
       </c>
@@ -6939,10 +6933,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="52"/>
-      <c r="D192" s="53"/>
-      <c r="E192" s="53"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
       <c r="F192" s="9" t="s">
         <v>71</v>
       </c>
@@ -6952,10 +6946,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
       <c r="F193" s="9" t="s">
         <v>73</v>
       </c>
@@ -6965,10 +6959,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="52"/>
-      <c r="D194" s="53"/>
-      <c r="E194" s="53"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="58"/>
       <c r="F194" s="9" t="s">
         <v>129</v>
       </c>
@@ -6978,10 +6972,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="52"/>
-      <c r="D195" s="53"/>
-      <c r="E195" s="53"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="57"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
       <c r="F195" s="9" t="s">
         <v>152</v>
       </c>
@@ -6991,10 +6985,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="52"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
       <c r="F196" s="9" t="s">
         <v>46</v>
       </c>
@@ -7004,16 +6998,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
-      <c r="B197" s="33" t="s">
+      <c r="B197" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C197" s="52" t="s">
+      <c r="C197" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="D197" s="53" t="s">
+      <c r="D197" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E197" s="53">
+      <c r="E197" s="58">
         <v>2</v>
       </c>
       <c r="F197" s="9" t="s">
@@ -7025,10 +7019,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="52"/>
-      <c r="D198" s="53"/>
-      <c r="E198" s="53"/>
+      <c r="B198" s="30"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="58"/>
       <c r="F198" s="9" t="s">
         <v>46</v>
       </c>
@@ -7038,16 +7032,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
-      <c r="B199" s="33" t="s">
+      <c r="B199" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C199" s="52" t="s">
+      <c r="C199" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="D199" s="53" t="s">
+      <c r="D199" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E199" s="53">
+      <c r="E199" s="58">
         <v>2</v>
       </c>
       <c r="F199" s="9" t="s">
@@ -7059,10 +7053,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="52"/>
-      <c r="D200" s="53"/>
-      <c r="E200" s="53"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="58"/>
+      <c r="E200" s="58"/>
       <c r="F200" s="9" t="s">
         <v>46</v>
       </c>
@@ -7072,16 +7066,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
-      <c r="B201" s="33" t="s">
+      <c r="B201" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C201" s="52" t="s">
+      <c r="C201" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="D201" s="53" t="s">
+      <c r="D201" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E201" s="53">
+      <c r="E201" s="58">
         <v>2</v>
       </c>
       <c r="F201" s="9" t="s">
@@ -7093,10 +7087,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="52"/>
-      <c r="D202" s="53"/>
-      <c r="E202" s="53"/>
+      <c r="B202" s="30"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="58"/>
       <c r="F202" s="9" t="s">
         <v>46</v>
       </c>
@@ -7106,16 +7100,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
-      <c r="B203" s="33" t="s">
+      <c r="B203" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C203" s="52" t="s">
+      <c r="C203" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="D203" s="53" t="s">
+      <c r="D203" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E203" s="53">
+      <c r="E203" s="58">
         <v>2</v>
       </c>
       <c r="F203" s="9" t="s">
@@ -7127,10 +7121,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="52"/>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="58"/>
       <c r="F204" s="9" t="s">
         <v>46</v>
       </c>
@@ -7140,16 +7134,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
-      <c r="B205" s="33" t="s">
+      <c r="B205" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C205" s="52" t="s">
+      <c r="C205" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="D205" s="53" t="s">
+      <c r="D205" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E205" s="53">
+      <c r="E205" s="58">
         <v>2</v>
       </c>
       <c r="F205" s="9" t="s">
@@ -7161,10 +7155,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="52"/>
-      <c r="D206" s="53"/>
-      <c r="E206" s="53"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="57"/>
+      <c r="D206" s="58"/>
+      <c r="E206" s="58"/>
       <c r="F206" s="9" t="s">
         <v>176</v>
       </c>
@@ -7174,10 +7168,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="52"/>
-      <c r="D207" s="53"/>
-      <c r="E207" s="53"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="57"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="58"/>
       <c r="F207" s="9" t="s">
         <v>46</v>
       </c>
@@ -7187,16 +7181,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
-      <c r="B208" s="54" t="s">
+      <c r="B208" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="C208" s="56" t="s">
+      <c r="C208" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="D208" s="56" t="s">
+      <c r="D208" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E208" s="58">
+      <c r="E208" s="63">
         <v>1</v>
       </c>
       <c r="F208" s="9">
@@ -7208,10 +7202,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="57"/>
-      <c r="D209" s="57"/>
-      <c r="E209" s="59"/>
+      <c r="B209" s="60"/>
+      <c r="C209" s="62"/>
+      <c r="D209" s="62"/>
+      <c r="E209" s="64"/>
       <c r="F209" s="9" t="s">
         <v>46</v>
       </c>
@@ -7221,16 +7215,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
-      <c r="B210" s="33" t="s">
+      <c r="B210" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C210" s="52" t="s">
+      <c r="C210" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="D210" s="53" t="s">
+      <c r="D210" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E210" s="53">
+      <c r="E210" s="58">
         <v>1</v>
       </c>
       <c r="F210" s="9" t="s">
@@ -7242,10 +7236,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="52"/>
-      <c r="D211" s="53"/>
-      <c r="E211" s="53"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="58"/>
       <c r="F211" s="9" t="s">
         <v>42</v>
       </c>
@@ -7255,10 +7249,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="52"/>
-      <c r="D212" s="53"/>
-      <c r="E212" s="53"/>
+      <c r="B212" s="30"/>
+      <c r="C212" s="57"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="58"/>
       <c r="F212" s="9" t="s">
         <v>82</v>
       </c>
@@ -7268,10 +7262,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="52"/>
-      <c r="D213" s="53"/>
-      <c r="E213" s="53"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="57"/>
+      <c r="D213" s="58"/>
+      <c r="E213" s="58"/>
       <c r="F213" s="9" t="s">
         <v>84</v>
       </c>
@@ -7281,10 +7275,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="52"/>
-      <c r="D214" s="53"/>
-      <c r="E214" s="53"/>
+      <c r="B214" s="30"/>
+      <c r="C214" s="57"/>
+      <c r="D214" s="58"/>
+      <c r="E214" s="58"/>
       <c r="F214" s="9" t="s">
         <v>46</v>
       </c>
@@ -7294,16 +7288,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
-      <c r="B215" s="33" t="s">
+      <c r="B215" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C215" s="52" t="s">
+      <c r="C215" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="D215" s="53" t="s">
+      <c r="D215" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E215" s="53">
+      <c r="E215" s="58">
         <v>2</v>
       </c>
       <c r="F215" s="9" t="s">
@@ -7315,10 +7309,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="52"/>
-      <c r="D216" s="53"/>
-      <c r="E216" s="53"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="57"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="58"/>
       <c r="F216" s="9" t="s">
         <v>46</v>
       </c>
@@ -7328,16 +7322,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
-      <c r="B217" s="33" t="s">
+      <c r="B217" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C217" s="52" t="s">
+      <c r="C217" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="53" t="s">
+      <c r="D217" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E217" s="53">
+      <c r="E217" s="58">
         <v>1</v>
       </c>
       <c r="F217" s="9" t="s">
@@ -7349,10 +7343,10 @@
     </row>
     <row r="218" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="52"/>
-      <c r="D218" s="53"/>
-      <c r="E218" s="53"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="57"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="58"/>
       <c r="F218" s="9" t="s">
         <v>42</v>
       </c>
@@ -7362,10 +7356,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
-      <c r="B219" s="33"/>
-      <c r="C219" s="52"/>
-      <c r="D219" s="53"/>
-      <c r="E219" s="53"/>
+      <c r="B219" s="30"/>
+      <c r="C219" s="57"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="58"/>
       <c r="F219" s="9" t="s">
         <v>82</v>
       </c>
@@ -7375,10 +7369,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
-      <c r="B220" s="33"/>
-      <c r="C220" s="52"/>
-      <c r="D220" s="53"/>
-      <c r="E220" s="53"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="57"/>
+      <c r="D220" s="58"/>
+      <c r="E220" s="58"/>
       <c r="F220" s="9" t="s">
         <v>46</v>
       </c>
@@ -7388,16 +7382,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
-      <c r="B221" s="33" t="s">
+      <c r="B221" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C221" s="52" t="s">
+      <c r="C221" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D221" s="53" t="s">
+      <c r="D221" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E221" s="53">
+      <c r="E221" s="58">
         <v>1</v>
       </c>
       <c r="F221" s="9" t="s">
@@ -7409,10 +7403,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
-      <c r="B222" s="33"/>
-      <c r="C222" s="52"/>
-      <c r="D222" s="53"/>
-      <c r="E222" s="53"/>
+      <c r="B222" s="30"/>
+      <c r="C222" s="57"/>
+      <c r="D222" s="58"/>
+      <c r="E222" s="58"/>
       <c r="F222" s="9" t="s">
         <v>42</v>
       </c>
@@ -7422,10 +7416,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
-      <c r="B223" s="33"/>
-      <c r="C223" s="52"/>
-      <c r="D223" s="53"/>
-      <c r="E223" s="53"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="57"/>
+      <c r="D223" s="58"/>
+      <c r="E223" s="58"/>
       <c r="F223" s="9" t="s">
         <v>86</v>
       </c>
@@ -7435,10 +7429,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
-      <c r="B224" s="33"/>
-      <c r="C224" s="52"/>
-      <c r="D224" s="53"/>
-      <c r="E224" s="53"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="57"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="58"/>
       <c r="F224" s="9" t="s">
         <v>46</v>
       </c>
@@ -7448,16 +7442,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
-      <c r="B225" s="33" t="s">
+      <c r="B225" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C225" s="52" t="s">
+      <c r="C225" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="D225" s="53" t="s">
+      <c r="D225" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E225" s="53">
+      <c r="E225" s="58">
         <v>1</v>
       </c>
       <c r="F225" s="9" t="s">
@@ -7469,10 +7463,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="52"/>
-      <c r="D226" s="53"/>
-      <c r="E226" s="53"/>
+      <c r="B226" s="30"/>
+      <c r="C226" s="57"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="58"/>
       <c r="F226" s="9" t="s">
         <v>42</v>
       </c>
@@ -7482,10 +7476,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="52"/>
-      <c r="D227" s="53"/>
-      <c r="E227" s="53"/>
+      <c r="B227" s="30"/>
+      <c r="C227" s="57"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="58"/>
       <c r="F227" s="9" t="s">
         <v>86</v>
       </c>
@@ -7495,10 +7489,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="52"/>
-      <c r="D228" s="53"/>
-      <c r="E228" s="53"/>
+      <c r="B228" s="30"/>
+      <c r="C228" s="57"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="58"/>
       <c r="F228" s="9" t="s">
         <v>46</v>
       </c>
@@ -7508,16 +7502,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
-      <c r="B229" s="33" t="s">
+      <c r="B229" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="C229" s="52" t="s">
+      <c r="C229" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="D229" s="53" t="s">
+      <c r="D229" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E229" s="53">
+      <c r="E229" s="58">
         <v>1</v>
       </c>
       <c r="F229" s="9" t="s">
@@ -7529,10 +7523,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="52"/>
-      <c r="D230" s="53"/>
-      <c r="E230" s="53"/>
+      <c r="B230" s="30"/>
+      <c r="C230" s="57"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="58"/>
       <c r="F230" s="9" t="s">
         <v>42</v>
       </c>
@@ -7542,10 +7536,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="52"/>
-      <c r="D231" s="53"/>
-      <c r="E231" s="53"/>
+      <c r="B231" s="30"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="58"/>
+      <c r="E231" s="58"/>
       <c r="F231" s="9" t="s">
         <v>86</v>
       </c>
@@ -7555,10 +7549,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="52"/>
-      <c r="D232" s="53"/>
-      <c r="E232" s="53"/>
+      <c r="B232" s="30"/>
+      <c r="C232" s="57"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="58"/>
       <c r="F232" s="9" t="s">
         <v>46</v>
       </c>
@@ -7568,16 +7562,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
-      <c r="B233" s="33" t="s">
+      <c r="B233" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C233" s="52" t="s">
+      <c r="C233" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="D233" s="53" t="s">
+      <c r="D233" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E233" s="53">
+      <c r="E233" s="58">
         <v>1</v>
       </c>
       <c r="F233" s="9" t="s">
@@ -7589,10 +7583,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
-      <c r="B234" s="33"/>
-      <c r="C234" s="52"/>
-      <c r="D234" s="53"/>
-      <c r="E234" s="53"/>
+      <c r="B234" s="30"/>
+      <c r="C234" s="57"/>
+      <c r="D234" s="58"/>
+      <c r="E234" s="58"/>
       <c r="F234" s="9" t="s">
         <v>42</v>
       </c>
@@ -7602,10 +7596,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
-      <c r="B235" s="33"/>
-      <c r="C235" s="52"/>
-      <c r="D235" s="53"/>
-      <c r="E235" s="53"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="57"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="58"/>
       <c r="F235" s="9" t="s">
         <v>86</v>
       </c>
@@ -7615,10 +7609,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
-      <c r="B236" s="33"/>
-      <c r="C236" s="52"/>
-      <c r="D236" s="53"/>
-      <c r="E236" s="53"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="58"/>
+      <c r="E236" s="58"/>
       <c r="F236" s="9" t="s">
         <v>46</v>
       </c>
@@ -7628,16 +7622,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="2"/>
-      <c r="B237" s="33" t="s">
+      <c r="B237" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C237" s="52" t="s">
+      <c r="C237" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D237" s="53" t="s">
+      <c r="D237" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E237" s="53">
+      <c r="E237" s="58">
         <v>1</v>
       </c>
       <c r="F237" s="9" t="s">
@@ -7649,10 +7643,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="2"/>
-      <c r="B238" s="33"/>
-      <c r="C238" s="52"/>
-      <c r="D238" s="53"/>
-      <c r="E238" s="53"/>
+      <c r="B238" s="30"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="58"/>
+      <c r="E238" s="58"/>
       <c r="F238" s="9" t="s">
         <v>42</v>
       </c>
@@ -7662,10 +7656,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
-      <c r="B239" s="33"/>
-      <c r="C239" s="52"/>
-      <c r="D239" s="53"/>
-      <c r="E239" s="53"/>
+      <c r="B239" s="30"/>
+      <c r="C239" s="57"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="58"/>
       <c r="F239" s="9" t="s">
         <v>86</v>
       </c>
@@ -7675,10 +7669,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
-      <c r="B240" s="33"/>
-      <c r="C240" s="52"/>
-      <c r="D240" s="53"/>
-      <c r="E240" s="53"/>
+      <c r="B240" s="30"/>
+      <c r="C240" s="57"/>
+      <c r="D240" s="58"/>
+      <c r="E240" s="58"/>
       <c r="F240" s="9" t="s">
         <v>46</v>
       </c>
@@ -7688,16 +7682,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
-      <c r="B241" s="33" t="s">
+      <c r="B241" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C241" s="52" t="s">
+      <c r="C241" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D241" s="53" t="s">
+      <c r="D241" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E241" s="53">
+      <c r="E241" s="58">
         <v>1</v>
       </c>
       <c r="F241" s="9" t="s">
@@ -7709,10 +7703,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
-      <c r="B242" s="33"/>
-      <c r="C242" s="52"/>
-      <c r="D242" s="53"/>
-      <c r="E242" s="53"/>
+      <c r="B242" s="30"/>
+      <c r="C242" s="57"/>
+      <c r="D242" s="58"/>
+      <c r="E242" s="58"/>
       <c r="F242" s="9" t="s">
         <v>42</v>
       </c>
@@ -7722,10 +7716,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
-      <c r="B243" s="33"/>
-      <c r="C243" s="52"/>
-      <c r="D243" s="53"/>
-      <c r="E243" s="53"/>
+      <c r="B243" s="30"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="58"/>
+      <c r="E243" s="58"/>
       <c r="F243" s="9" t="s">
         <v>86</v>
       </c>
@@ -7735,10 +7729,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
-      <c r="B244" s="33"/>
-      <c r="C244" s="52"/>
-      <c r="D244" s="53"/>
-      <c r="E244" s="53"/>
+      <c r="B244" s="30"/>
+      <c r="C244" s="57"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="58"/>
       <c r="F244" s="9" t="s">
         <v>46</v>
       </c>
@@ -7748,16 +7742,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="2"/>
-      <c r="B245" s="33" t="s">
+      <c r="B245" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C245" s="52" t="s">
+      <c r="C245" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="D245" s="53" t="s">
+      <c r="D245" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E245" s="53">
+      <c r="E245" s="58">
         <v>1</v>
       </c>
       <c r="F245" s="9" t="s">
@@ -7769,10 +7763,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="52"/>
-      <c r="D246" s="53"/>
-      <c r="E246" s="53"/>
+      <c r="B246" s="30"/>
+      <c r="C246" s="57"/>
+      <c r="D246" s="58"/>
+      <c r="E246" s="58"/>
       <c r="F246" s="9" t="s">
         <v>42</v>
       </c>
@@ -7782,10 +7776,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="2"/>
-      <c r="B247" s="33"/>
-      <c r="C247" s="52"/>
-      <c r="D247" s="53"/>
-      <c r="E247" s="53"/>
+      <c r="B247" s="30"/>
+      <c r="C247" s="57"/>
+      <c r="D247" s="58"/>
+      <c r="E247" s="58"/>
       <c r="F247" s="9" t="s">
         <v>86</v>
       </c>
@@ -7795,10 +7789,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
-      <c r="B248" s="33"/>
-      <c r="C248" s="52"/>
-      <c r="D248" s="53"/>
-      <c r="E248" s="53"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="57"/>
+      <c r="D248" s="58"/>
+      <c r="E248" s="58"/>
       <c r="F248" s="9" t="s">
         <v>46</v>
       </c>
@@ -7808,16 +7802,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="2"/>
-      <c r="B249" s="33" t="s">
+      <c r="B249" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C249" s="52" t="s">
+      <c r="C249" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="D249" s="53" t="s">
+      <c r="D249" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E249" s="53">
+      <c r="E249" s="58">
         <v>1</v>
       </c>
       <c r="F249" s="9" t="s">
@@ -7829,10 +7823,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="2"/>
-      <c r="B250" s="33"/>
-      <c r="C250" s="52"/>
-      <c r="D250" s="53"/>
-      <c r="E250" s="53"/>
+      <c r="B250" s="30"/>
+      <c r="C250" s="57"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="58"/>
       <c r="F250" s="9" t="s">
         <v>42</v>
       </c>
@@ -7842,10 +7836,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="52"/>
-      <c r="D251" s="53"/>
-      <c r="E251" s="53"/>
+      <c r="B251" s="30"/>
+      <c r="C251" s="57"/>
+      <c r="D251" s="58"/>
+      <c r="E251" s="58"/>
       <c r="F251" s="9" t="s">
         <v>86</v>
       </c>
@@ -7855,10 +7849,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="2"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="52"/>
-      <c r="D252" s="53"/>
-      <c r="E252" s="53"/>
+      <c r="B252" s="30"/>
+      <c r="C252" s="57"/>
+      <c r="D252" s="58"/>
+      <c r="E252" s="58"/>
       <c r="F252" s="9" t="s">
         <v>46</v>
       </c>
@@ -7868,16 +7862,16 @@
     </row>
     <row r="253" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2"/>
-      <c r="B253" s="33" t="s">
+      <c r="B253" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C253" s="52" t="s">
+      <c r="C253" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="D253" s="53" t="s">
+      <c r="D253" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E253" s="53">
+      <c r="E253" s="58">
         <v>1</v>
       </c>
       <c r="F253" s="9" t="s">
@@ -7889,10 +7883,10 @@
     </row>
     <row r="254" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="52"/>
-      <c r="D254" s="53"/>
-      <c r="E254" s="53"/>
+      <c r="B254" s="30"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="58"/>
+      <c r="E254" s="58"/>
       <c r="F254" s="9" t="s">
         <v>42</v>
       </c>
@@ -7902,10 +7896,10 @@
     </row>
     <row r="255" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="52"/>
-      <c r="D255" s="53"/>
-      <c r="E255" s="53"/>
+      <c r="B255" s="30"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="58"/>
+      <c r="E255" s="58"/>
       <c r="F255" s="9" t="s">
         <v>46</v>
       </c>
@@ -7915,16 +7909,16 @@
     </row>
     <row r="256" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
-      <c r="B256" s="33" t="s">
+      <c r="B256" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C256" s="52" t="s">
+      <c r="C256" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="D256" s="53" t="s">
+      <c r="D256" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E256" s="53">
+      <c r="E256" s="58">
         <v>1</v>
       </c>
       <c r="F256" s="9" t="s">
@@ -7936,10 +7930,10 @@
     </row>
     <row r="257" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="52"/>
-      <c r="D257" s="53"/>
-      <c r="E257" s="53"/>
+      <c r="B257" s="30"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="58"/>
+      <c r="E257" s="58"/>
       <c r="F257" s="9" t="s">
         <v>42</v>
       </c>
@@ -7949,10 +7943,10 @@
     </row>
     <row r="258" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2"/>
-      <c r="B258" s="33"/>
-      <c r="C258" s="52"/>
-      <c r="D258" s="53"/>
-      <c r="E258" s="53"/>
+      <c r="B258" s="30"/>
+      <c r="C258" s="57"/>
+      <c r="D258" s="58"/>
+      <c r="E258" s="58"/>
       <c r="F258" s="9" t="s">
         <v>46</v>
       </c>
@@ -7962,16 +7956,16 @@
     </row>
     <row r="259" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2"/>
-      <c r="B259" s="33" t="s">
+      <c r="B259" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C259" s="52" t="s">
+      <c r="C259" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="D259" s="53" t="s">
+      <c r="D259" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E259" s="53">
+      <c r="E259" s="58">
         <v>1</v>
       </c>
       <c r="F259" s="9" t="s">
@@ -7983,10 +7977,10 @@
     </row>
     <row r="260" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2"/>
-      <c r="B260" s="33"/>
-      <c r="C260" s="52"/>
-      <c r="D260" s="53"/>
-      <c r="E260" s="53"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="58"/>
+      <c r="E260" s="58"/>
       <c r="F260" s="9" t="s">
         <v>42</v>
       </c>
@@ -7996,10 +7990,10 @@
     </row>
     <row r="261" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="52"/>
-      <c r="D261" s="53"/>
-      <c r="E261" s="53"/>
+      <c r="B261" s="30"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="58"/>
+      <c r="E261" s="58"/>
       <c r="F261" s="9" t="s">
         <v>46</v>
       </c>
@@ -8009,16 +8003,16 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="2"/>
-      <c r="B262" s="33" t="s">
+      <c r="B262" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C262" s="52" t="s">
+      <c r="C262" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="D262" s="53" t="s">
+      <c r="D262" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E262" s="53">
+      <c r="E262" s="58">
         <v>1</v>
       </c>
       <c r="F262" s="9" t="s">
@@ -8030,10 +8024,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="2"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="52"/>
-      <c r="D263" s="53"/>
-      <c r="E263" s="53"/>
+      <c r="B263" s="30"/>
+      <c r="C263" s="57"/>
+      <c r="D263" s="58"/>
+      <c r="E263" s="58"/>
       <c r="F263" s="9" t="s">
         <v>42</v>
       </c>
@@ -8043,10 +8037,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="2"/>
-      <c r="B264" s="33"/>
-      <c r="C264" s="52"/>
-      <c r="D264" s="53"/>
-      <c r="E264" s="53"/>
+      <c r="B264" s="30"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="58"/>
       <c r="F264" s="9" t="s">
         <v>46</v>
       </c>
@@ -8056,16 +8050,16 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="2"/>
-      <c r="B265" s="33" t="s">
+      <c r="B265" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C265" s="52" t="s">
+      <c r="C265" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="D265" s="53" t="s">
+      <c r="D265" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E265" s="53">
+      <c r="E265" s="58">
         <v>1</v>
       </c>
       <c r="F265" s="9" t="s">
@@ -8077,10 +8071,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="2"/>
-      <c r="B266" s="33"/>
-      <c r="C266" s="52"/>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53"/>
+      <c r="B266" s="30"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="58"/>
+      <c r="E266" s="58"/>
       <c r="F266" s="9" t="s">
         <v>42</v>
       </c>
@@ -8090,10 +8084,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="2"/>
-      <c r="B267" s="33"/>
-      <c r="C267" s="52"/>
-      <c r="D267" s="53"/>
-      <c r="E267" s="53"/>
+      <c r="B267" s="30"/>
+      <c r="C267" s="57"/>
+      <c r="D267" s="58"/>
+      <c r="E267" s="58"/>
       <c r="F267" s="9" t="s">
         <v>46</v>
       </c>
@@ -8103,16 +8097,16 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="2"/>
-      <c r="B268" s="71" t="s">
+      <c r="B268" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="C268" s="34" t="s">
+      <c r="C268" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="D268" s="35" t="s">
+      <c r="D268" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E268" s="35">
+      <c r="E268" s="34">
         <v>1</v>
       </c>
       <c r="F268" s="9" t="s">
@@ -8124,10 +8118,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="2"/>
-      <c r="B269" s="71"/>
-      <c r="C269" s="34"/>
-      <c r="D269" s="35"/>
-      <c r="E269" s="35"/>
+      <c r="B269" s="53"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="34"/>
+      <c r="E269" s="34"/>
       <c r="F269" s="9" t="s">
         <v>42</v>
       </c>
@@ -8137,10 +8131,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="2"/>
-      <c r="B270" s="71"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="35"/>
-      <c r="E270" s="35"/>
+      <c r="B270" s="53"/>
+      <c r="C270" s="32"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
       <c r="F270" s="9" t="s">
         <v>46</v>
       </c>
@@ -8150,16 +8144,16 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="2"/>
-      <c r="B271" s="71" t="s">
+      <c r="B271" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="C271" s="34" t="s">
+      <c r="C271" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="D271" s="35" t="s">
+      <c r="D271" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E271" s="35">
+      <c r="E271" s="34">
         <v>1</v>
       </c>
       <c r="F271" s="9" t="s">
@@ -8171,10 +8165,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="2"/>
-      <c r="B272" s="71"/>
-      <c r="C272" s="34"/>
-      <c r="D272" s="35"/>
-      <c r="E272" s="35"/>
+      <c r="B272" s="53"/>
+      <c r="C272" s="32"/>
+      <c r="D272" s="34"/>
+      <c r="E272" s="34"/>
       <c r="F272" s="9" t="s">
         <v>42</v>
       </c>
@@ -8184,10 +8178,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="2"/>
-      <c r="B273" s="71"/>
-      <c r="C273" s="34"/>
-      <c r="D273" s="35"/>
-      <c r="E273" s="35"/>
+      <c r="B273" s="53"/>
+      <c r="C273" s="32"/>
+      <c r="D273" s="34"/>
+      <c r="E273" s="34"/>
       <c r="F273" s="9" t="s">
         <v>46</v>
       </c>
@@ -8197,16 +8191,16 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
-      <c r="B274" s="71" t="s">
+      <c r="B274" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="C274" s="34" t="s">
+      <c r="C274" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D274" s="35" t="s">
+      <c r="D274" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E274" s="35">
+      <c r="E274" s="34">
         <v>1</v>
       </c>
       <c r="F274" s="9" t="s">
@@ -8218,10 +8212,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="2"/>
-      <c r="B275" s="71"/>
-      <c r="C275" s="34"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="35"/>
+      <c r="B275" s="53"/>
+      <c r="C275" s="32"/>
+      <c r="D275" s="34"/>
+      <c r="E275" s="34"/>
       <c r="F275" s="9" t="s">
         <v>42</v>
       </c>
@@ -8231,10 +8225,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="2"/>
-      <c r="B276" s="71"/>
-      <c r="C276" s="34"/>
-      <c r="D276" s="35"/>
-      <c r="E276" s="35"/>
+      <c r="B276" s="53"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="34"/>
+      <c r="E276" s="34"/>
       <c r="F276" s="9" t="s">
         <v>46</v>
       </c>
@@ -8244,16 +8238,16 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="2"/>
-      <c r="B277" s="71" t="s">
+      <c r="B277" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="C277" s="34" t="s">
+      <c r="C277" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D277" s="35" t="s">
+      <c r="D277" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E277" s="35">
+      <c r="E277" s="34">
         <v>1</v>
       </c>
       <c r="F277" s="9" t="s">
@@ -8265,10 +8259,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="2"/>
-      <c r="B278" s="71"/>
-      <c r="C278" s="34"/>
-      <c r="D278" s="35"/>
-      <c r="E278" s="35"/>
+      <c r="B278" s="53"/>
+      <c r="C278" s="32"/>
+      <c r="D278" s="34"/>
+      <c r="E278" s="34"/>
       <c r="F278" s="9" t="s">
         <v>42</v>
       </c>
@@ -8278,10 +8272,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="2"/>
-      <c r="B279" s="71"/>
-      <c r="C279" s="34"/>
-      <c r="D279" s="35"/>
-      <c r="E279" s="35"/>
+      <c r="B279" s="53"/>
+      <c r="C279" s="32"/>
+      <c r="D279" s="34"/>
+      <c r="E279" s="34"/>
       <c r="F279" s="9" t="s">
         <v>46</v>
       </c>
@@ -8291,16 +8285,16 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="2"/>
-      <c r="B280" s="71" t="s">
+      <c r="B280" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="C280" s="34" t="s">
+      <c r="C280" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="D280" s="35" t="s">
+      <c r="D280" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E280" s="35">
+      <c r="E280" s="34">
         <v>1</v>
       </c>
       <c r="F280" s="9" t="s">
@@ -8312,10 +8306,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="2"/>
-      <c r="B281" s="71"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="35"/>
-      <c r="E281" s="35"/>
+      <c r="B281" s="53"/>
+      <c r="C281" s="32"/>
+      <c r="D281" s="34"/>
+      <c r="E281" s="34"/>
       <c r="F281" s="9" t="s">
         <v>42</v>
       </c>
@@ -8325,10 +8319,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="2"/>
-      <c r="B282" s="71"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
-      <c r="E282" s="35"/>
+      <c r="B282" s="53"/>
+      <c r="C282" s="32"/>
+      <c r="D282" s="34"/>
+      <c r="E282" s="34"/>
       <c r="F282" s="9" t="s">
         <v>46</v>
       </c>
@@ -8338,16 +8332,16 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="2"/>
-      <c r="B283" s="71" t="s">
+      <c r="B283" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="C283" s="34" t="s">
+      <c r="C283" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D283" s="35" t="s">
+      <c r="D283" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E283" s="35">
+      <c r="E283" s="34">
         <v>1</v>
       </c>
       <c r="F283" s="9" t="s">
@@ -8359,10 +8353,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="2"/>
-      <c r="B284" s="71"/>
-      <c r="C284" s="34"/>
-      <c r="D284" s="35"/>
-      <c r="E284" s="35"/>
+      <c r="B284" s="53"/>
+      <c r="C284" s="32"/>
+      <c r="D284" s="34"/>
+      <c r="E284" s="34"/>
       <c r="F284" s="9" t="s">
         <v>42</v>
       </c>
@@ -8372,10 +8366,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="2"/>
-      <c r="B285" s="71"/>
-      <c r="C285" s="34"/>
-      <c r="D285" s="35"/>
-      <c r="E285" s="35"/>
+      <c r="B285" s="53"/>
+      <c r="C285" s="32"/>
+      <c r="D285" s="34"/>
+      <c r="E285" s="34"/>
       <c r="F285" s="9" t="s">
         <v>46</v>
       </c>
@@ -8385,16 +8379,16 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="2"/>
-      <c r="B286" s="71" t="s">
+      <c r="B286" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="C286" s="34" t="s">
+      <c r="C286" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="D286" s="35" t="s">
+      <c r="D286" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E286" s="35">
+      <c r="E286" s="34">
         <v>1</v>
       </c>
       <c r="F286" s="9" t="s">
@@ -8406,10 +8400,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="2"/>
-      <c r="B287" s="71"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
-      <c r="E287" s="35"/>
+      <c r="B287" s="53"/>
+      <c r="C287" s="32"/>
+      <c r="D287" s="34"/>
+      <c r="E287" s="34"/>
       <c r="F287" s="9" t="s">
         <v>42</v>
       </c>
@@ -8419,10 +8413,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="2"/>
-      <c r="B288" s="71"/>
-      <c r="C288" s="34"/>
-      <c r="D288" s="35"/>
-      <c r="E288" s="35"/>
+      <c r="B288" s="53"/>
+      <c r="C288" s="32"/>
+      <c r="D288" s="34"/>
+      <c r="E288" s="34"/>
       <c r="F288" s="9" t="s">
         <v>46</v>
       </c>
@@ -8432,16 +8426,16 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="2"/>
-      <c r="B289" s="71" t="s">
+      <c r="B289" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="C289" s="34" t="s">
+      <c r="C289" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D289" s="35" t="s">
+      <c r="D289" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E289" s="35">
+      <c r="E289" s="34">
         <v>1</v>
       </c>
       <c r="F289" s="9" t="s">
@@ -8453,10 +8447,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="2"/>
-      <c r="B290" s="71"/>
-      <c r="C290" s="34"/>
-      <c r="D290" s="35"/>
-      <c r="E290" s="35"/>
+      <c r="B290" s="53"/>
+      <c r="C290" s="32"/>
+      <c r="D290" s="34"/>
+      <c r="E290" s="34"/>
       <c r="F290" s="9" t="s">
         <v>42</v>
       </c>
@@ -8466,10 +8460,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="2"/>
-      <c r="B291" s="71"/>
-      <c r="C291" s="34"/>
-      <c r="D291" s="35"/>
-      <c r="E291" s="35"/>
+      <c r="B291" s="53"/>
+      <c r="C291" s="32"/>
+      <c r="D291" s="34"/>
+      <c r="E291" s="34"/>
       <c r="F291" s="9" t="s">
         <v>46</v>
       </c>
@@ -8479,16 +8473,16 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="2"/>
-      <c r="B292" s="33" t="s">
+      <c r="B292" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="C292" s="60" t="s">
+      <c r="C292" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="D292" s="61" t="s">
+      <c r="D292" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E292" s="61">
+      <c r="E292" s="56">
         <v>1</v>
       </c>
       <c r="F292" s="9" t="s">
@@ -8500,10 +8494,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="2"/>
-      <c r="B293" s="33"/>
-      <c r="C293" s="60"/>
-      <c r="D293" s="61"/>
-      <c r="E293" s="61"/>
+      <c r="B293" s="30"/>
+      <c r="C293" s="55"/>
+      <c r="D293" s="56"/>
+      <c r="E293" s="56"/>
       <c r="F293" s="9" t="s">
         <v>42</v>
       </c>
@@ -8513,10 +8507,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="2"/>
-      <c r="B294" s="33"/>
-      <c r="C294" s="60"/>
-      <c r="D294" s="61"/>
-      <c r="E294" s="61"/>
+      <c r="B294" s="30"/>
+      <c r="C294" s="55"/>
+      <c r="D294" s="56"/>
+      <c r="E294" s="56"/>
       <c r="F294" s="9" t="s">
         <v>46</v>
       </c>
@@ -8526,16 +8520,16 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="2"/>
-      <c r="B295" s="71" t="s">
+      <c r="B295" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="C295" s="34" t="s">
+      <c r="C295" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="D295" s="35" t="s">
+      <c r="D295" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E295" s="35">
+      <c r="E295" s="34">
         <v>1</v>
       </c>
       <c r="F295" s="9" t="s">
@@ -8547,10 +8541,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="2"/>
-      <c r="B296" s="71"/>
-      <c r="C296" s="34"/>
-      <c r="D296" s="35"/>
-      <c r="E296" s="35"/>
+      <c r="B296" s="53"/>
+      <c r="C296" s="32"/>
+      <c r="D296" s="34"/>
+      <c r="E296" s="34"/>
       <c r="F296" s="9" t="s">
         <v>42</v>
       </c>
@@ -8560,10 +8554,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="2"/>
-      <c r="B297" s="71"/>
-      <c r="C297" s="34"/>
-      <c r="D297" s="35"/>
-      <c r="E297" s="35"/>
+      <c r="B297" s="53"/>
+      <c r="C297" s="32"/>
+      <c r="D297" s="34"/>
+      <c r="E297" s="34"/>
       <c r="F297" s="9" t="s">
         <v>46</v>
       </c>
@@ -8573,16 +8567,16 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="2"/>
-      <c r="B298" s="71" t="s">
+      <c r="B298" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="C298" s="34" t="s">
+      <c r="C298" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="D298" s="35" t="s">
+      <c r="D298" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E298" s="35">
+      <c r="E298" s="34">
         <v>1</v>
       </c>
       <c r="F298" s="9" t="s">
@@ -8594,10 +8588,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="2"/>
-      <c r="B299" s="71"/>
-      <c r="C299" s="34"/>
-      <c r="D299" s="35"/>
-      <c r="E299" s="35"/>
+      <c r="B299" s="53"/>
+      <c r="C299" s="32"/>
+      <c r="D299" s="34"/>
+      <c r="E299" s="34"/>
       <c r="F299" s="9" t="s">
         <v>42</v>
       </c>
@@ -8607,10 +8601,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="2"/>
-      <c r="B300" s="71"/>
-      <c r="C300" s="34"/>
-      <c r="D300" s="35"/>
-      <c r="E300" s="35"/>
+      <c r="B300" s="53"/>
+      <c r="C300" s="32"/>
+      <c r="D300" s="34"/>
+      <c r="E300" s="34"/>
       <c r="F300" s="9" t="s">
         <v>46</v>
       </c>
@@ -8620,16 +8614,16 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="2"/>
-      <c r="B301" s="71" t="s">
+      <c r="B301" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="C301" s="34" t="s">
+      <c r="C301" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="D301" s="35" t="s">
+      <c r="D301" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E301" s="35">
+      <c r="E301" s="34">
         <v>1</v>
       </c>
       <c r="F301" s="9" t="s">
@@ -8641,10 +8635,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="2"/>
-      <c r="B302" s="71"/>
-      <c r="C302" s="34"/>
-      <c r="D302" s="35"/>
-      <c r="E302" s="35"/>
+      <c r="B302" s="53"/>
+      <c r="C302" s="32"/>
+      <c r="D302" s="34"/>
+      <c r="E302" s="34"/>
       <c r="F302" s="9" t="s">
         <v>42</v>
       </c>
@@ -8654,10 +8648,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="2"/>
-      <c r="B303" s="71"/>
-      <c r="C303" s="34"/>
-      <c r="D303" s="35"/>
-      <c r="E303" s="35"/>
+      <c r="B303" s="53"/>
+      <c r="C303" s="32"/>
+      <c r="D303" s="34"/>
+      <c r="E303" s="34"/>
       <c r="F303" s="9" t="s">
         <v>46</v>
       </c>
@@ -8667,16 +8661,16 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="2"/>
-      <c r="B304" s="71" t="s">
+      <c r="B304" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="C304" s="34" t="s">
+      <c r="C304" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="D304" s="35" t="s">
+      <c r="D304" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E304" s="35">
+      <c r="E304" s="34">
         <v>1</v>
       </c>
       <c r="F304" s="9" t="s">
@@ -8688,10 +8682,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="2"/>
-      <c r="B305" s="71"/>
-      <c r="C305" s="34"/>
-      <c r="D305" s="35"/>
-      <c r="E305" s="35"/>
+      <c r="B305" s="53"/>
+      <c r="C305" s="32"/>
+      <c r="D305" s="34"/>
+      <c r="E305" s="34"/>
       <c r="F305" s="9" t="s">
         <v>42</v>
       </c>
@@ -8701,10 +8695,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="2"/>
-      <c r="B306" s="71"/>
-      <c r="C306" s="34"/>
-      <c r="D306" s="35"/>
-      <c r="E306" s="35"/>
+      <c r="B306" s="53"/>
+      <c r="C306" s="32"/>
+      <c r="D306" s="34"/>
+      <c r="E306" s="34"/>
       <c r="F306" s="9" t="s">
         <v>46</v>
       </c>
@@ -8714,16 +8708,16 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="2"/>
-      <c r="B307" s="71" t="s">
+      <c r="B307" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="C307" s="34" t="s">
+      <c r="C307" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="D307" s="35" t="s">
+      <c r="D307" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E307" s="35">
+      <c r="E307" s="34">
         <v>1</v>
       </c>
       <c r="F307" s="9" t="s">
@@ -8735,10 +8729,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="2"/>
-      <c r="B308" s="71"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
-      <c r="E308" s="35"/>
+      <c r="B308" s="53"/>
+      <c r="C308" s="32"/>
+      <c r="D308" s="34"/>
+      <c r="E308" s="34"/>
       <c r="F308" s="9" t="s">
         <v>42</v>
       </c>
@@ -8748,10 +8742,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="2"/>
-      <c r="B309" s="71"/>
-      <c r="C309" s="34"/>
-      <c r="D309" s="35"/>
-      <c r="E309" s="35"/>
+      <c r="B309" s="53"/>
+      <c r="C309" s="32"/>
+      <c r="D309" s="34"/>
+      <c r="E309" s="34"/>
       <c r="F309" s="9" t="s">
         <v>46</v>
       </c>
@@ -8761,16 +8755,16 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
-      <c r="B310" s="71" t="s">
+      <c r="B310" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="C310" s="34" t="s">
+      <c r="C310" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="D310" s="35" t="s">
+      <c r="D310" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E310" s="35">
+      <c r="E310" s="34">
         <v>1</v>
       </c>
       <c r="F310" s="9" t="s">
@@ -8782,10 +8776,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="2"/>
-      <c r="B311" s="71"/>
-      <c r="C311" s="34"/>
-      <c r="D311" s="35"/>
-      <c r="E311" s="35"/>
+      <c r="B311" s="53"/>
+      <c r="C311" s="32"/>
+      <c r="D311" s="34"/>
+      <c r="E311" s="34"/>
       <c r="F311" s="9" t="s">
         <v>42</v>
       </c>
@@ -8795,10 +8789,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="2"/>
-      <c r="B312" s="71"/>
-      <c r="C312" s="34"/>
-      <c r="D312" s="35"/>
-      <c r="E312" s="35"/>
+      <c r="B312" s="53"/>
+      <c r="C312" s="32"/>
+      <c r="D312" s="34"/>
+      <c r="E312" s="34"/>
       <c r="F312" s="9" t="s">
         <v>46</v>
       </c>
@@ -8808,16 +8802,16 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="2"/>
-      <c r="B313" s="71" t="s">
+      <c r="B313" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="C313" s="34" t="s">
+      <c r="C313" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="D313" s="35" t="s">
+      <c r="D313" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E313" s="35">
+      <c r="E313" s="34">
         <v>1</v>
       </c>
       <c r="F313" s="9" t="s">
@@ -8829,10 +8823,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="2"/>
-      <c r="B314" s="71"/>
-      <c r="C314" s="34"/>
-      <c r="D314" s="35"/>
-      <c r="E314" s="35"/>
+      <c r="B314" s="53"/>
+      <c r="C314" s="32"/>
+      <c r="D314" s="34"/>
+      <c r="E314" s="34"/>
       <c r="F314" s="9" t="s">
         <v>42</v>
       </c>
@@ -8842,10 +8836,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="2"/>
-      <c r="B315" s="71"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
-      <c r="E315" s="35"/>
+      <c r="B315" s="53"/>
+      <c r="C315" s="32"/>
+      <c r="D315" s="34"/>
+      <c r="E315" s="34"/>
       <c r="F315" s="9" t="s">
         <v>46</v>
       </c>
@@ -8855,16 +8849,16 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="2"/>
-      <c r="B316" s="33" t="s">
+      <c r="B316" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C316" s="34" t="s">
+      <c r="C316" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="D316" s="35" t="s">
+      <c r="D316" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E316" s="35">
+      <c r="E316" s="34">
         <v>2</v>
       </c>
       <c r="F316" s="9" t="s">
@@ -8876,10 +8870,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="2"/>
-      <c r="B317" s="33"/>
-      <c r="C317" s="34"/>
-      <c r="D317" s="35"/>
-      <c r="E317" s="35"/>
+      <c r="B317" s="30"/>
+      <c r="C317" s="32"/>
+      <c r="D317" s="34"/>
+      <c r="E317" s="34"/>
       <c r="F317" s="9" t="s">
         <v>344</v>
       </c>
@@ -8889,10 +8883,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="2"/>
-      <c r="B318" s="33"/>
-      <c r="C318" s="34"/>
-      <c r="D318" s="35"/>
-      <c r="E318" s="35"/>
+      <c r="B318" s="30"/>
+      <c r="C318" s="32"/>
+      <c r="D318" s="34"/>
+      <c r="E318" s="34"/>
       <c r="F318" s="9" t="s">
         <v>176</v>
       </c>
@@ -8902,10 +8896,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="2"/>
-      <c r="B319" s="33"/>
-      <c r="C319" s="34"/>
-      <c r="D319" s="35"/>
-      <c r="E319" s="35"/>
+      <c r="B319" s="30"/>
+      <c r="C319" s="32"/>
+      <c r="D319" s="34"/>
+      <c r="E319" s="34"/>
       <c r="F319" s="9" t="s">
         <v>75</v>
       </c>
@@ -8915,10 +8909,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="2"/>
-      <c r="B320" s="33"/>
-      <c r="C320" s="34"/>
-      <c r="D320" s="35"/>
-      <c r="E320" s="35"/>
+      <c r="B320" s="30"/>
+      <c r="C320" s="32"/>
+      <c r="D320" s="34"/>
+      <c r="E320" s="34"/>
       <c r="F320" s="9" t="s">
         <v>46</v>
       </c>
@@ -8928,16 +8922,16 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="2"/>
-      <c r="B321" s="69" t="s">
+      <c r="B321" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="C321" s="34" t="s">
+      <c r="C321" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="D321" s="35" t="s">
+      <c r="D321" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E321" s="35">
+      <c r="E321" s="34">
         <v>1</v>
       </c>
       <c r="F321" s="9" t="s">
@@ -8949,10 +8943,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="2"/>
-      <c r="B322" s="69"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
-      <c r="E322" s="35"/>
+      <c r="B322" s="44"/>
+      <c r="C322" s="32"/>
+      <c r="D322" s="34"/>
+      <c r="E322" s="34"/>
       <c r="F322" s="9" t="s">
         <v>42</v>
       </c>
@@ -8962,10 +8956,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="2"/>
-      <c r="B323" s="69"/>
-      <c r="C323" s="34"/>
-      <c r="D323" s="35"/>
-      <c r="E323" s="35"/>
+      <c r="B323" s="44"/>
+      <c r="C323" s="32"/>
+      <c r="D323" s="34"/>
+      <c r="E323" s="34"/>
       <c r="F323" s="9" t="s">
         <v>82</v>
       </c>
@@ -8975,10 +8969,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="2"/>
-      <c r="B324" s="69"/>
-      <c r="C324" s="34"/>
-      <c r="D324" s="35"/>
-      <c r="E324" s="35"/>
+      <c r="B324" s="44"/>
+      <c r="C324" s="32"/>
+      <c r="D324" s="34"/>
+      <c r="E324" s="34"/>
       <c r="F324" s="9" t="s">
         <v>84</v>
       </c>
@@ -8988,10 +8982,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="2"/>
-      <c r="B325" s="69"/>
-      <c r="C325" s="34"/>
-      <c r="D325" s="35"/>
-      <c r="E325" s="35"/>
+      <c r="B325" s="44"/>
+      <c r="C325" s="32"/>
+      <c r="D325" s="34"/>
+      <c r="E325" s="34"/>
       <c r="F325" s="9" t="s">
         <v>352</v>
       </c>
@@ -9001,10 +8995,10 @@
     </row>
     <row r="326" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A326" s="2"/>
-      <c r="B326" s="69"/>
-      <c r="C326" s="34"/>
-      <c r="D326" s="35"/>
-      <c r="E326" s="35"/>
+      <c r="B326" s="44"/>
+      <c r="C326" s="32"/>
+      <c r="D326" s="34"/>
+      <c r="E326" s="34"/>
       <c r="F326" s="9" t="s">
         <v>353</v>
       </c>
@@ -9014,10 +9008,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="2"/>
-      <c r="B327" s="69"/>
-      <c r="C327" s="34"/>
-      <c r="D327" s="35"/>
-      <c r="E327" s="35"/>
+      <c r="B327" s="44"/>
+      <c r="C327" s="32"/>
+      <c r="D327" s="34"/>
+      <c r="E327" s="34"/>
       <c r="F327" s="9" t="s">
         <v>355</v>
       </c>
@@ -9027,10 +9021,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="2"/>
-      <c r="B328" s="69"/>
-      <c r="C328" s="34"/>
-      <c r="D328" s="35"/>
-      <c r="E328" s="35"/>
+      <c r="B328" s="44"/>
+      <c r="C328" s="32"/>
+      <c r="D328" s="34"/>
+      <c r="E328" s="34"/>
       <c r="F328" s="9" t="s">
         <v>357</v>
       </c>
@@ -9040,10 +9034,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="2"/>
-      <c r="B329" s="69"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
-      <c r="E329" s="35"/>
+      <c r="B329" s="44"/>
+      <c r="C329" s="32"/>
+      <c r="D329" s="34"/>
+      <c r="E329" s="34"/>
       <c r="F329" s="9" t="s">
         <v>86</v>
       </c>
@@ -9053,10 +9047,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="2"/>
-      <c r="B330" s="69"/>
-      <c r="C330" s="34"/>
-      <c r="D330" s="35"/>
-      <c r="E330" s="35"/>
+      <c r="B330" s="44"/>
+      <c r="C330" s="32"/>
+      <c r="D330" s="34"/>
+      <c r="E330" s="34"/>
       <c r="F330" s="9" t="s">
         <v>46</v>
       </c>
@@ -9066,16 +9060,16 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="2"/>
-      <c r="B331" s="71" t="s">
+      <c r="B331" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="C331" s="34" t="s">
+      <c r="C331" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="D331" s="35" t="s">
+      <c r="D331" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E331" s="35">
+      <c r="E331" s="34">
         <v>1</v>
       </c>
       <c r="F331" s="9" t="s">
@@ -9087,10 +9081,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="2"/>
-      <c r="B332" s="71"/>
-      <c r="C332" s="34"/>
-      <c r="D332" s="35"/>
-      <c r="E332" s="35"/>
+      <c r="B332" s="53"/>
+      <c r="C332" s="32"/>
+      <c r="D332" s="34"/>
+      <c r="E332" s="34"/>
       <c r="F332" s="9" t="s">
         <v>42</v>
       </c>
@@ -9100,10 +9094,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="2"/>
-      <c r="B333" s="71"/>
-      <c r="C333" s="34"/>
-      <c r="D333" s="35"/>
-      <c r="E333" s="35"/>
+      <c r="B333" s="53"/>
+      <c r="C333" s="32"/>
+      <c r="D333" s="34"/>
+      <c r="E333" s="34"/>
       <c r="F333" s="9" t="s">
         <v>46</v>
       </c>
@@ -9113,16 +9107,16 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="2"/>
-      <c r="B334" s="71" t="s">
+      <c r="B334" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="C334" s="34" t="s">
+      <c r="C334" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="D334" s="35" t="s">
+      <c r="D334" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E334" s="35">
+      <c r="E334" s="34">
         <v>1</v>
       </c>
       <c r="F334" s="9" t="s">
@@ -9134,10 +9128,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="2"/>
-      <c r="B335" s="71"/>
-      <c r="C335" s="34"/>
-      <c r="D335" s="35"/>
-      <c r="E335" s="35"/>
+      <c r="B335" s="53"/>
+      <c r="C335" s="32"/>
+      <c r="D335" s="34"/>
+      <c r="E335" s="34"/>
       <c r="F335" s="9" t="s">
         <v>42</v>
       </c>
@@ -9147,10 +9141,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="2"/>
-      <c r="B336" s="71"/>
-      <c r="C336" s="34"/>
-      <c r="D336" s="35"/>
-      <c r="E336" s="35"/>
+      <c r="B336" s="53"/>
+      <c r="C336" s="32"/>
+      <c r="D336" s="34"/>
+      <c r="E336" s="34"/>
       <c r="F336" s="9" t="s">
         <v>46</v>
       </c>
@@ -9160,16 +9154,16 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="2"/>
-      <c r="B337" s="71" t="s">
+      <c r="B337" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="C337" s="34" t="s">
+      <c r="C337" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="D337" s="35" t="s">
+      <c r="D337" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E337" s="35">
+      <c r="E337" s="34">
         <v>1</v>
       </c>
       <c r="F337" s="9" t="s">
@@ -9181,10 +9175,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="2"/>
-      <c r="B338" s="71"/>
-      <c r="C338" s="34"/>
-      <c r="D338" s="35"/>
-      <c r="E338" s="35"/>
+      <c r="B338" s="53"/>
+      <c r="C338" s="32"/>
+      <c r="D338" s="34"/>
+      <c r="E338" s="34"/>
       <c r="F338" s="9" t="s">
         <v>42</v>
       </c>
@@ -9194,10 +9188,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="2"/>
-      <c r="B339" s="71"/>
-      <c r="C339" s="34"/>
-      <c r="D339" s="35"/>
-      <c r="E339" s="35"/>
+      <c r="B339" s="53"/>
+      <c r="C339" s="32"/>
+      <c r="D339" s="34"/>
+      <c r="E339" s="34"/>
       <c r="F339" s="9" t="s">
         <v>46</v>
       </c>
@@ -9207,16 +9201,16 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="2"/>
-      <c r="B340" s="71" t="s">
+      <c r="B340" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="C340" s="34" t="s">
+      <c r="C340" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="D340" s="35" t="s">
+      <c r="D340" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E340" s="35">
+      <c r="E340" s="34">
         <v>1</v>
       </c>
       <c r="F340" s="9" t="s">
@@ -9228,10 +9222,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="2"/>
-      <c r="B341" s="71"/>
-      <c r="C341" s="34"/>
-      <c r="D341" s="35"/>
-      <c r="E341" s="35"/>
+      <c r="B341" s="53"/>
+      <c r="C341" s="32"/>
+      <c r="D341" s="34"/>
+      <c r="E341" s="34"/>
       <c r="F341" s="9" t="s">
         <v>42</v>
       </c>
@@ -9241,10 +9235,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="2"/>
-      <c r="B342" s="71"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
-      <c r="E342" s="35"/>
+      <c r="B342" s="53"/>
+      <c r="C342" s="32"/>
+      <c r="D342" s="34"/>
+      <c r="E342" s="34"/>
       <c r="F342" s="9" t="s">
         <v>46</v>
       </c>
@@ -9254,16 +9248,16 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="2"/>
-      <c r="B343" s="71" t="s">
+      <c r="B343" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="C343" s="34" t="s">
+      <c r="C343" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="D343" s="35" t="s">
+      <c r="D343" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E343" s="35">
+      <c r="E343" s="34">
         <v>1</v>
       </c>
       <c r="F343" s="9" t="s">
@@ -9275,10 +9269,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="2"/>
-      <c r="B344" s="71"/>
-      <c r="C344" s="34"/>
-      <c r="D344" s="35"/>
-      <c r="E344" s="35"/>
+      <c r="B344" s="53"/>
+      <c r="C344" s="32"/>
+      <c r="D344" s="34"/>
+      <c r="E344" s="34"/>
       <c r="F344" s="9" t="s">
         <v>42</v>
       </c>
@@ -9288,10 +9282,10 @@
     </row>
     <row r="345" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="2"/>
-      <c r="B345" s="72"/>
-      <c r="C345" s="41"/>
-      <c r="D345" s="42"/>
-      <c r="E345" s="42"/>
+      <c r="B345" s="54"/>
+      <c r="C345" s="33"/>
+      <c r="D345" s="35"/>
+      <c r="E345" s="35"/>
       <c r="F345" s="20" t="s">
         <v>46</v>
       </c>
@@ -9363,16 +9357,16 @@
     </row>
     <row r="350" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A350" s="2"/>
-      <c r="B350" s="33" t="s">
+      <c r="B350" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C350" s="62" t="s">
+      <c r="C350" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="D350" s="63" t="s">
+      <c r="D350" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E350" s="63">
+      <c r="E350" s="50">
         <v>1</v>
       </c>
       <c r="F350" s="9" t="s">
@@ -9384,10 +9378,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="2"/>
-      <c r="B351" s="33"/>
-      <c r="C351" s="62"/>
-      <c r="D351" s="63"/>
-      <c r="E351" s="63"/>
+      <c r="B351" s="30"/>
+      <c r="C351" s="49"/>
+      <c r="D351" s="50"/>
+      <c r="E351" s="50"/>
       <c r="F351" s="9" t="s">
         <v>42</v>
       </c>
@@ -9397,10 +9391,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="2"/>
-      <c r="B352" s="33"/>
-      <c r="C352" s="62"/>
-      <c r="D352" s="63"/>
-      <c r="E352" s="63"/>
+      <c r="B352" s="30"/>
+      <c r="C352" s="49"/>
+      <c r="D352" s="50"/>
+      <c r="E352" s="50"/>
       <c r="F352" s="9" t="s">
         <v>46</v>
       </c>
@@ -9410,16 +9404,16 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="2"/>
-      <c r="B353" s="33" t="s">
+      <c r="B353" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="C353" s="62" t="s">
+      <c r="C353" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="D353" s="63" t="s">
+      <c r="D353" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E353" s="63">
+      <c r="E353" s="50">
         <v>1</v>
       </c>
       <c r="F353" s="9" t="s">
@@ -9431,10 +9425,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="2"/>
-      <c r="B354" s="33"/>
-      <c r="C354" s="62"/>
-      <c r="D354" s="63"/>
-      <c r="E354" s="63"/>
+      <c r="B354" s="30"/>
+      <c r="C354" s="49"/>
+      <c r="D354" s="50"/>
+      <c r="E354" s="50"/>
       <c r="F354" s="9" t="s">
         <v>42</v>
       </c>
@@ -9444,10 +9438,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="2"/>
-      <c r="B355" s="33"/>
-      <c r="C355" s="62"/>
-      <c r="D355" s="63"/>
-      <c r="E355" s="63"/>
+      <c r="B355" s="30"/>
+      <c r="C355" s="49"/>
+      <c r="D355" s="50"/>
+      <c r="E355" s="50"/>
       <c r="F355" s="9" t="s">
         <v>46</v>
       </c>
@@ -9457,16 +9451,16 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="2"/>
-      <c r="B356" s="33" t="s">
+      <c r="B356" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="C356" s="62" t="s">
+      <c r="C356" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="D356" s="63" t="s">
+      <c r="D356" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E356" s="63">
+      <c r="E356" s="50">
         <v>2</v>
       </c>
       <c r="F356" s="9" t="s">
@@ -9478,10 +9472,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="2"/>
-      <c r="B357" s="33"/>
-      <c r="C357" s="62"/>
-      <c r="D357" s="63"/>
-      <c r="E357" s="63"/>
+      <c r="B357" s="30"/>
+      <c r="C357" s="49"/>
+      <c r="D357" s="50"/>
+      <c r="E357" s="50"/>
       <c r="F357" s="9" t="s">
         <v>60</v>
       </c>
@@ -9491,10 +9485,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="2"/>
-      <c r="B358" s="33"/>
-      <c r="C358" s="62"/>
-      <c r="D358" s="63"/>
-      <c r="E358" s="63"/>
+      <c r="B358" s="30"/>
+      <c r="C358" s="49"/>
+      <c r="D358" s="50"/>
+      <c r="E358" s="50"/>
       <c r="F358" s="9" t="s">
         <v>62</v>
       </c>
@@ -9504,10 +9498,10 @@
     </row>
     <row r="359" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A359" s="2"/>
-      <c r="B359" s="33"/>
-      <c r="C359" s="62"/>
-      <c r="D359" s="63"/>
-      <c r="E359" s="63"/>
+      <c r="B359" s="30"/>
+      <c r="C359" s="49"/>
+      <c r="D359" s="50"/>
+      <c r="E359" s="50"/>
       <c r="F359" s="9" t="s">
         <v>64</v>
       </c>
@@ -9517,10 +9511,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="2"/>
-      <c r="B360" s="33"/>
-      <c r="C360" s="62"/>
-      <c r="D360" s="63"/>
-      <c r="E360" s="63"/>
+      <c r="B360" s="30"/>
+      <c r="C360" s="49"/>
+      <c r="D360" s="50"/>
+      <c r="E360" s="50"/>
       <c r="F360" s="9" t="s">
         <v>66</v>
       </c>
@@ -9530,10 +9524,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="2"/>
-      <c r="B361" s="33"/>
-      <c r="C361" s="62"/>
-      <c r="D361" s="63"/>
-      <c r="E361" s="63"/>
+      <c r="B361" s="30"/>
+      <c r="C361" s="49"/>
+      <c r="D361" s="50"/>
+      <c r="E361" s="50"/>
       <c r="F361" s="9" t="s">
         <v>68</v>
       </c>
@@ -9543,10 +9537,10 @@
     </row>
     <row r="362" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A362" s="2"/>
-      <c r="B362" s="33"/>
-      <c r="C362" s="62"/>
-      <c r="D362" s="63"/>
-      <c r="E362" s="63"/>
+      <c r="B362" s="30"/>
+      <c r="C362" s="49"/>
+      <c r="D362" s="50"/>
+      <c r="E362" s="50"/>
       <c r="F362" s="9" t="s">
         <v>70</v>
       </c>
@@ -9556,10 +9550,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="2"/>
-      <c r="B363" s="33"/>
-      <c r="C363" s="62"/>
-      <c r="D363" s="63"/>
-      <c r="E363" s="63"/>
+      <c r="B363" s="30"/>
+      <c r="C363" s="49"/>
+      <c r="D363" s="50"/>
+      <c r="E363" s="50"/>
       <c r="F363" s="9" t="s">
         <v>71</v>
       </c>
@@ -9569,10 +9563,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="2"/>
-      <c r="B364" s="33"/>
-      <c r="C364" s="62"/>
-      <c r="D364" s="63"/>
-      <c r="E364" s="63"/>
+      <c r="B364" s="30"/>
+      <c r="C364" s="49"/>
+      <c r="D364" s="50"/>
+      <c r="E364" s="50"/>
       <c r="F364" s="9" t="s">
         <v>73</v>
       </c>
@@ -9582,10 +9576,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="2"/>
-      <c r="B365" s="33"/>
-      <c r="C365" s="62"/>
-      <c r="D365" s="63"/>
-      <c r="E365" s="63"/>
+      <c r="B365" s="30"/>
+      <c r="C365" s="49"/>
+      <c r="D365" s="50"/>
+      <c r="E365" s="50"/>
       <c r="F365" s="9" t="s">
         <v>129</v>
       </c>
@@ -9595,10 +9589,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="2"/>
-      <c r="B366" s="33"/>
-      <c r="C366" s="62"/>
-      <c r="D366" s="63"/>
-      <c r="E366" s="63"/>
+      <c r="B366" s="30"/>
+      <c r="C366" s="49"/>
+      <c r="D366" s="50"/>
+      <c r="E366" s="50"/>
       <c r="F366" s="9" t="s">
         <v>152</v>
       </c>
@@ -9608,10 +9602,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="2"/>
-      <c r="B367" s="33"/>
-      <c r="C367" s="62"/>
-      <c r="D367" s="63"/>
-      <c r="E367" s="63"/>
+      <c r="B367" s="30"/>
+      <c r="C367" s="49"/>
+      <c r="D367" s="50"/>
+      <c r="E367" s="50"/>
       <c r="F367" s="9" t="s">
         <v>46</v>
       </c>
@@ -9621,16 +9615,16 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="2"/>
-      <c r="B368" s="33" t="s">
+      <c r="B368" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="C368" s="62" t="s">
+      <c r="C368" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="D368" s="63" t="s">
+      <c r="D368" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E368" s="63">
+      <c r="E368" s="50">
         <v>2</v>
       </c>
       <c r="F368" s="9" t="s">
@@ -9642,10 +9636,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="2"/>
-      <c r="B369" s="33"/>
-      <c r="C369" s="62"/>
-      <c r="D369" s="63"/>
-      <c r="E369" s="63"/>
+      <c r="B369" s="30"/>
+      <c r="C369" s="49"/>
+      <c r="D369" s="50"/>
+      <c r="E369" s="50"/>
       <c r="F369" s="9" t="s">
         <v>58</v>
       </c>
@@ -9655,10 +9649,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="2"/>
-      <c r="B370" s="33"/>
-      <c r="C370" s="62"/>
-      <c r="D370" s="63"/>
-      <c r="E370" s="63"/>
+      <c r="B370" s="30"/>
+      <c r="C370" s="49"/>
+      <c r="D370" s="50"/>
+      <c r="E370" s="50"/>
       <c r="F370" s="9" t="s">
         <v>60</v>
       </c>
@@ -9668,10 +9662,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="2"/>
-      <c r="B371" s="33"/>
-      <c r="C371" s="62"/>
-      <c r="D371" s="63"/>
-      <c r="E371" s="63"/>
+      <c r="B371" s="30"/>
+      <c r="C371" s="49"/>
+      <c r="D371" s="50"/>
+      <c r="E371" s="50"/>
       <c r="F371" s="9" t="s">
         <v>62</v>
       </c>
@@ -9681,10 +9675,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
-      <c r="B372" s="33"/>
-      <c r="C372" s="62"/>
-      <c r="D372" s="63"/>
-      <c r="E372" s="63"/>
+      <c r="B372" s="30"/>
+      <c r="C372" s="49"/>
+      <c r="D372" s="50"/>
+      <c r="E372" s="50"/>
       <c r="F372" s="9" t="s">
         <v>64</v>
       </c>
@@ -9694,10 +9688,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="2"/>
-      <c r="B373" s="33"/>
-      <c r="C373" s="62"/>
-      <c r="D373" s="63"/>
-      <c r="E373" s="63"/>
+      <c r="B373" s="30"/>
+      <c r="C373" s="49"/>
+      <c r="D373" s="50"/>
+      <c r="E373" s="50"/>
       <c r="F373" s="9" t="s">
         <v>66</v>
       </c>
@@ -9707,10 +9701,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="2"/>
-      <c r="B374" s="33"/>
-      <c r="C374" s="62"/>
-      <c r="D374" s="63"/>
-      <c r="E374" s="63"/>
+      <c r="B374" s="30"/>
+      <c r="C374" s="49"/>
+      <c r="D374" s="50"/>
+      <c r="E374" s="50"/>
       <c r="F374" s="9" t="s">
         <v>68</v>
       </c>
@@ -9720,10 +9714,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="2"/>
-      <c r="B375" s="33"/>
-      <c r="C375" s="62"/>
-      <c r="D375" s="63"/>
-      <c r="E375" s="63"/>
+      <c r="B375" s="30"/>
+      <c r="C375" s="49"/>
+      <c r="D375" s="50"/>
+      <c r="E375" s="50"/>
       <c r="F375" s="9" t="s">
         <v>70</v>
       </c>
@@ -9733,10 +9727,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
-      <c r="B376" s="33"/>
-      <c r="C376" s="62"/>
-      <c r="D376" s="63"/>
-      <c r="E376" s="63"/>
+      <c r="B376" s="30"/>
+      <c r="C376" s="49"/>
+      <c r="D376" s="50"/>
+      <c r="E376" s="50"/>
       <c r="F376" s="9" t="s">
         <v>71</v>
       </c>
@@ -9746,10 +9740,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="2"/>
-      <c r="B377" s="33"/>
-      <c r="C377" s="62"/>
-      <c r="D377" s="63"/>
-      <c r="E377" s="63"/>
+      <c r="B377" s="30"/>
+      <c r="C377" s="49"/>
+      <c r="D377" s="50"/>
+      <c r="E377" s="50"/>
       <c r="F377" s="9" t="s">
         <v>73</v>
       </c>
@@ -9759,10 +9753,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="2"/>
-      <c r="B378" s="33"/>
-      <c r="C378" s="62"/>
-      <c r="D378" s="63"/>
-      <c r="E378" s="63"/>
+      <c r="B378" s="30"/>
+      <c r="C378" s="49"/>
+      <c r="D378" s="50"/>
+      <c r="E378" s="50"/>
       <c r="F378" s="9" t="s">
         <v>129</v>
       </c>
@@ -9772,10 +9766,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="2"/>
-      <c r="B379" s="33"/>
-      <c r="C379" s="62"/>
-      <c r="D379" s="63"/>
-      <c r="E379" s="63"/>
+      <c r="B379" s="30"/>
+      <c r="C379" s="49"/>
+      <c r="D379" s="50"/>
+      <c r="E379" s="50"/>
       <c r="F379" s="9" t="s">
         <v>152</v>
       </c>
@@ -9785,10 +9779,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="2"/>
-      <c r="B380" s="33"/>
-      <c r="C380" s="62"/>
-      <c r="D380" s="63"/>
-      <c r="E380" s="63"/>
+      <c r="B380" s="30"/>
+      <c r="C380" s="49"/>
+      <c r="D380" s="50"/>
+      <c r="E380" s="50"/>
       <c r="F380" s="9" t="s">
         <v>46</v>
       </c>
@@ -9798,16 +9792,16 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="2"/>
-      <c r="B381" s="33" t="s">
+      <c r="B381" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="C381" s="62" t="s">
+      <c r="C381" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="D381" s="63" t="s">
+      <c r="D381" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E381" s="63">
+      <c r="E381" s="50">
         <v>1</v>
       </c>
       <c r="F381" s="9" t="s">
@@ -9819,10 +9813,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="2"/>
-      <c r="B382" s="33"/>
-      <c r="C382" s="62"/>
-      <c r="D382" s="63"/>
-      <c r="E382" s="63"/>
+      <c r="B382" s="30"/>
+      <c r="C382" s="49"/>
+      <c r="D382" s="50"/>
+      <c r="E382" s="50"/>
       <c r="F382" s="9" t="s">
         <v>46</v>
       </c>
@@ -9832,16 +9826,16 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="2"/>
-      <c r="B383" s="33" t="s">
+      <c r="B383" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C383" s="62" t="s">
+      <c r="C383" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="D383" s="63" t="s">
+      <c r="D383" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E383" s="63">
+      <c r="E383" s="50">
         <v>1</v>
       </c>
       <c r="F383" s="9" t="s">
@@ -9853,10 +9847,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="2"/>
-      <c r="B384" s="33"/>
-      <c r="C384" s="62"/>
-      <c r="D384" s="63"/>
-      <c r="E384" s="63"/>
+      <c r="B384" s="30"/>
+      <c r="C384" s="49"/>
+      <c r="D384" s="50"/>
+      <c r="E384" s="50"/>
       <c r="F384" s="9" t="s">
         <v>42</v>
       </c>
@@ -9866,10 +9860,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="2"/>
-      <c r="B385" s="33"/>
-      <c r="C385" s="62"/>
-      <c r="D385" s="63"/>
-      <c r="E385" s="63"/>
+      <c r="B385" s="30"/>
+      <c r="C385" s="49"/>
+      <c r="D385" s="50"/>
+      <c r="E385" s="50"/>
       <c r="F385" s="9" t="s">
         <v>46</v>
       </c>
@@ -9879,16 +9873,16 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="2"/>
-      <c r="B386" s="33" t="s">
+      <c r="B386" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="C386" s="62" t="s">
+      <c r="C386" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="D386" s="63" t="s">
+      <c r="D386" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E386" s="63">
+      <c r="E386" s="50">
         <v>2</v>
       </c>
       <c r="F386" s="9" t="s">
@@ -9900,10 +9894,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="2"/>
-      <c r="B387" s="33"/>
-      <c r="C387" s="62"/>
-      <c r="D387" s="63"/>
-      <c r="E387" s="63"/>
+      <c r="B387" s="30"/>
+      <c r="C387" s="49"/>
+      <c r="D387" s="50"/>
+      <c r="E387" s="50"/>
       <c r="F387" s="9" t="s">
         <v>176</v>
       </c>
@@ -9913,10 +9907,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="2"/>
-      <c r="B388" s="33"/>
-      <c r="C388" s="62"/>
-      <c r="D388" s="63"/>
-      <c r="E388" s="63"/>
+      <c r="B388" s="30"/>
+      <c r="C388" s="49"/>
+      <c r="D388" s="50"/>
+      <c r="E388" s="50"/>
       <c r="F388" s="9" t="s">
         <v>46</v>
       </c>
@@ -9926,16 +9920,16 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="2"/>
-      <c r="B389" s="33" t="s">
+      <c r="B389" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="C389" s="62" t="s">
+      <c r="C389" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="D389" s="63" t="s">
+      <c r="D389" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E389" s="63">
+      <c r="E389" s="50">
         <v>2</v>
       </c>
       <c r="F389" s="9" t="s">
@@ -9947,10 +9941,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="2"/>
-      <c r="B390" s="33"/>
-      <c r="C390" s="62"/>
-      <c r="D390" s="63"/>
-      <c r="E390" s="63"/>
+      <c r="B390" s="30"/>
+      <c r="C390" s="49"/>
+      <c r="D390" s="50"/>
+      <c r="E390" s="50"/>
       <c r="F390" s="9" t="s">
         <v>60</v>
       </c>
@@ -9960,10 +9954,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="2"/>
-      <c r="B391" s="33"/>
-      <c r="C391" s="62"/>
-      <c r="D391" s="63"/>
-      <c r="E391" s="63"/>
+      <c r="B391" s="30"/>
+      <c r="C391" s="49"/>
+      <c r="D391" s="50"/>
+      <c r="E391" s="50"/>
       <c r="F391" s="9" t="s">
         <v>62</v>
       </c>
@@ -9973,10 +9967,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="2"/>
-      <c r="B392" s="33"/>
-      <c r="C392" s="62"/>
-      <c r="D392" s="63"/>
-      <c r="E392" s="63"/>
+      <c r="B392" s="30"/>
+      <c r="C392" s="49"/>
+      <c r="D392" s="50"/>
+      <c r="E392" s="50"/>
       <c r="F392" s="9" t="s">
         <v>64</v>
       </c>
@@ -9986,10 +9980,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="2"/>
-      <c r="B393" s="33"/>
-      <c r="C393" s="62"/>
-      <c r="D393" s="63"/>
-      <c r="E393" s="63"/>
+      <c r="B393" s="30"/>
+      <c r="C393" s="49"/>
+      <c r="D393" s="50"/>
+      <c r="E393" s="50"/>
       <c r="F393" s="9" t="s">
         <v>66</v>
       </c>
@@ -9999,10 +9993,10 @@
     </row>
     <row r="394" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A394" s="2"/>
-      <c r="B394" s="33"/>
-      <c r="C394" s="62"/>
-      <c r="D394" s="63"/>
-      <c r="E394" s="63"/>
+      <c r="B394" s="30"/>
+      <c r="C394" s="49"/>
+      <c r="D394" s="50"/>
+      <c r="E394" s="50"/>
       <c r="F394" s="9" t="s">
         <v>68</v>
       </c>
@@ -10012,10 +10006,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="2"/>
-      <c r="B395" s="33"/>
-      <c r="C395" s="62"/>
-      <c r="D395" s="63"/>
-      <c r="E395" s="63"/>
+      <c r="B395" s="30"/>
+      <c r="C395" s="49"/>
+      <c r="D395" s="50"/>
+      <c r="E395" s="50"/>
       <c r="F395" s="9" t="s">
         <v>70</v>
       </c>
@@ -10025,10 +10019,10 @@
     </row>
     <row r="396" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A396" s="2"/>
-      <c r="B396" s="33"/>
-      <c r="C396" s="62"/>
-      <c r="D396" s="63"/>
-      <c r="E396" s="63"/>
+      <c r="B396" s="30"/>
+      <c r="C396" s="49"/>
+      <c r="D396" s="50"/>
+      <c r="E396" s="50"/>
       <c r="F396" s="9" t="s">
         <v>71</v>
       </c>
@@ -10038,10 +10032,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="2"/>
-      <c r="B397" s="33"/>
-      <c r="C397" s="62"/>
-      <c r="D397" s="63"/>
-      <c r="E397" s="63"/>
+      <c r="B397" s="30"/>
+      <c r="C397" s="49"/>
+      <c r="D397" s="50"/>
+      <c r="E397" s="50"/>
       <c r="F397" s="9" t="s">
         <v>73</v>
       </c>
@@ -10051,10 +10045,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="2"/>
-      <c r="B398" s="33"/>
-      <c r="C398" s="62"/>
-      <c r="D398" s="63"/>
-      <c r="E398" s="63"/>
+      <c r="B398" s="30"/>
+      <c r="C398" s="49"/>
+      <c r="D398" s="50"/>
+      <c r="E398" s="50"/>
       <c r="F398" s="9" t="s">
         <v>129</v>
       </c>
@@ -10064,10 +10058,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="2"/>
-      <c r="B399" s="33"/>
-      <c r="C399" s="62"/>
-      <c r="D399" s="63"/>
-      <c r="E399" s="63"/>
+      <c r="B399" s="30"/>
+      <c r="C399" s="49"/>
+      <c r="D399" s="50"/>
+      <c r="E399" s="50"/>
       <c r="F399" s="9" t="s">
         <v>152</v>
       </c>
@@ -10077,10 +10071,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="2"/>
-      <c r="B400" s="33"/>
-      <c r="C400" s="62"/>
-      <c r="D400" s="63"/>
-      <c r="E400" s="63"/>
+      <c r="B400" s="30"/>
+      <c r="C400" s="49"/>
+      <c r="D400" s="50"/>
+      <c r="E400" s="50"/>
       <c r="F400" s="9" t="s">
         <v>154</v>
       </c>
@@ -10090,10 +10084,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="2"/>
-      <c r="B401" s="33"/>
-      <c r="C401" s="62"/>
-      <c r="D401" s="63"/>
-      <c r="E401" s="63"/>
+      <c r="B401" s="30"/>
+      <c r="C401" s="49"/>
+      <c r="D401" s="50"/>
+      <c r="E401" s="50"/>
       <c r="F401" s="9" t="s">
         <v>193</v>
       </c>
@@ -10103,10 +10097,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="2"/>
-      <c r="B402" s="33"/>
-      <c r="C402" s="62"/>
-      <c r="D402" s="63"/>
-      <c r="E402" s="63"/>
+      <c r="B402" s="30"/>
+      <c r="C402" s="49"/>
+      <c r="D402" s="50"/>
+      <c r="E402" s="50"/>
       <c r="F402" s="9" t="s">
         <v>195</v>
       </c>
@@ -10116,10 +10110,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="2"/>
-      <c r="B403" s="33"/>
-      <c r="C403" s="62"/>
-      <c r="D403" s="63"/>
-      <c r="E403" s="63"/>
+      <c r="B403" s="30"/>
+      <c r="C403" s="49"/>
+      <c r="D403" s="50"/>
+      <c r="E403" s="50"/>
       <c r="F403" s="9" t="s">
         <v>46</v>
       </c>
@@ -10129,16 +10123,16 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="2"/>
-      <c r="B404" s="33" t="s">
+      <c r="B404" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="C404" s="62" t="s">
+      <c r="C404" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="D404" s="63" t="s">
+      <c r="D404" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E404" s="63">
+      <c r="E404" s="50">
         <v>1</v>
       </c>
       <c r="F404" s="9" t="s">
@@ -10150,10 +10144,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="2"/>
-      <c r="B405" s="33"/>
-      <c r="C405" s="62"/>
-      <c r="D405" s="63"/>
-      <c r="E405" s="63"/>
+      <c r="B405" s="30"/>
+      <c r="C405" s="49"/>
+      <c r="D405" s="50"/>
+      <c r="E405" s="50"/>
       <c r="F405" s="9" t="s">
         <v>42</v>
       </c>
@@ -10163,10 +10157,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="2"/>
-      <c r="B406" s="33"/>
-      <c r="C406" s="62"/>
-      <c r="D406" s="63"/>
-      <c r="E406" s="63"/>
+      <c r="B406" s="30"/>
+      <c r="C406" s="49"/>
+      <c r="D406" s="50"/>
+      <c r="E406" s="50"/>
       <c r="F406" s="9" t="s">
         <v>86</v>
       </c>
@@ -10176,10 +10170,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="2"/>
-      <c r="B407" s="33"/>
-      <c r="C407" s="62"/>
-      <c r="D407" s="63"/>
-      <c r="E407" s="63"/>
+      <c r="B407" s="30"/>
+      <c r="C407" s="49"/>
+      <c r="D407" s="50"/>
+      <c r="E407" s="50"/>
       <c r="F407" s="9" t="s">
         <v>46</v>
       </c>
@@ -10189,16 +10183,16 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="2"/>
-      <c r="B408" s="33" t="s">
+      <c r="B408" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C408" s="62" t="s">
+      <c r="C408" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="D408" s="63" t="s">
+      <c r="D408" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E408" s="63">
+      <c r="E408" s="50">
         <v>1</v>
       </c>
       <c r="F408" s="9" t="s">
@@ -10210,10 +10204,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="2"/>
-      <c r="B409" s="33"/>
-      <c r="C409" s="62"/>
-      <c r="D409" s="63"/>
-      <c r="E409" s="63"/>
+      <c r="B409" s="30"/>
+      <c r="C409" s="49"/>
+      <c r="D409" s="50"/>
+      <c r="E409" s="50"/>
       <c r="F409" s="9" t="s">
         <v>42</v>
       </c>
@@ -10223,10 +10217,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>
-      <c r="B410" s="33"/>
-      <c r="C410" s="62"/>
-      <c r="D410" s="63"/>
-      <c r="E410" s="63"/>
+      <c r="B410" s="30"/>
+      <c r="C410" s="49"/>
+      <c r="D410" s="50"/>
+      <c r="E410" s="50"/>
       <c r="F410" s="9" t="s">
         <v>82</v>
       </c>
@@ -10236,10 +10230,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="2"/>
-      <c r="B411" s="33"/>
-      <c r="C411" s="62"/>
-      <c r="D411" s="63"/>
-      <c r="E411" s="63"/>
+      <c r="B411" s="30"/>
+      <c r="C411" s="49"/>
+      <c r="D411" s="50"/>
+      <c r="E411" s="50"/>
       <c r="F411" s="9" t="s">
         <v>84</v>
       </c>
@@ -10249,10 +10243,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="2"/>
-      <c r="B412" s="33"/>
-      <c r="C412" s="62"/>
-      <c r="D412" s="63"/>
-      <c r="E412" s="63"/>
+      <c r="B412" s="30"/>
+      <c r="C412" s="49"/>
+      <c r="D412" s="50"/>
+      <c r="E412" s="50"/>
       <c r="F412" s="9" t="s">
         <v>86</v>
       </c>
@@ -10262,10 +10256,10 @@
     </row>
     <row r="413" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A413" s="2"/>
-      <c r="B413" s="40"/>
-      <c r="C413" s="64"/>
-      <c r="D413" s="65"/>
-      <c r="E413" s="65"/>
+      <c r="B413" s="31"/>
+      <c r="C413" s="51"/>
+      <c r="D413" s="52"/>
+      <c r="E413" s="52"/>
       <c r="F413" s="20" t="s">
         <v>46</v>
       </c>
@@ -10337,16 +10331,16 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="2"/>
-      <c r="B418" s="33" t="s">
+      <c r="B418" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="C418" s="66" t="s">
+      <c r="C418" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="D418" s="67" t="s">
+      <c r="D418" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E418" s="67">
+      <c r="E418" s="48">
         <v>1</v>
       </c>
       <c r="F418" s="9" t="s">
@@ -10358,10 +10352,10 @@
     </row>
     <row r="419" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A419" s="2"/>
-      <c r="B419" s="33"/>
-      <c r="C419" s="66"/>
-      <c r="D419" s="67"/>
-      <c r="E419" s="67"/>
+      <c r="B419" s="30"/>
+      <c r="C419" s="47"/>
+      <c r="D419" s="48"/>
+      <c r="E419" s="48"/>
       <c r="F419" s="9" t="s">
         <v>42</v>
       </c>
@@ -10371,10 +10365,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="2"/>
-      <c r="B420" s="33"/>
-      <c r="C420" s="66"/>
-      <c r="D420" s="67"/>
-      <c r="E420" s="67"/>
+      <c r="B420" s="30"/>
+      <c r="C420" s="47"/>
+      <c r="D420" s="48"/>
+      <c r="E420" s="48"/>
       <c r="F420" s="9" t="s">
         <v>46</v>
       </c>
@@ -10384,16 +10378,16 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="2"/>
-      <c r="B421" s="69" t="s">
+      <c r="B421" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="C421" s="34" t="s">
+      <c r="C421" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="D421" s="35" t="s">
+      <c r="D421" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E421" s="35">
+      <c r="E421" s="34">
         <v>1</v>
       </c>
       <c r="F421" s="9" t="s">
@@ -10405,10 +10399,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="2"/>
-      <c r="B422" s="69"/>
-      <c r="C422" s="34"/>
-      <c r="D422" s="35"/>
-      <c r="E422" s="35"/>
+      <c r="B422" s="44"/>
+      <c r="C422" s="32"/>
+      <c r="D422" s="34"/>
+      <c r="E422" s="34"/>
       <c r="F422" s="9" t="s">
         <v>42</v>
       </c>
@@ -10418,10 +10412,10 @@
     </row>
     <row r="423" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A423" s="2"/>
-      <c r="B423" s="69"/>
-      <c r="C423" s="34"/>
-      <c r="D423" s="35"/>
-      <c r="E423" s="35"/>
+      <c r="B423" s="44"/>
+      <c r="C423" s="32"/>
+      <c r="D423" s="34"/>
+      <c r="E423" s="34"/>
       <c r="F423" s="9" t="s">
         <v>82</v>
       </c>
@@ -10431,10 +10425,10 @@
     </row>
     <row r="424" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A424" s="2"/>
-      <c r="B424" s="69"/>
-      <c r="C424" s="34"/>
-      <c r="D424" s="35"/>
-      <c r="E424" s="35"/>
+      <c r="B424" s="44"/>
+      <c r="C424" s="32"/>
+      <c r="D424" s="34"/>
+      <c r="E424" s="34"/>
       <c r="F424" s="9" t="s">
         <v>84</v>
       </c>
@@ -10444,10 +10438,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="2"/>
-      <c r="B425" s="69"/>
-      <c r="C425" s="34"/>
-      <c r="D425" s="35"/>
-      <c r="E425" s="35"/>
+      <c r="B425" s="44"/>
+      <c r="C425" s="32"/>
+      <c r="D425" s="34"/>
+      <c r="E425" s="34"/>
       <c r="F425" s="9" t="s">
         <v>352</v>
       </c>
@@ -10457,10 +10451,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="2"/>
-      <c r="B426" s="69"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
-      <c r="E426" s="35"/>
+      <c r="B426" s="44"/>
+      <c r="C426" s="32"/>
+      <c r="D426" s="34"/>
+      <c r="E426" s="34"/>
       <c r="F426" s="9" t="s">
         <v>353</v>
       </c>
@@ -10470,10 +10464,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
-      <c r="B427" s="69"/>
-      <c r="C427" s="34"/>
-      <c r="D427" s="35"/>
-      <c r="E427" s="35"/>
+      <c r="B427" s="44"/>
+      <c r="C427" s="32"/>
+      <c r="D427" s="34"/>
+      <c r="E427" s="34"/>
       <c r="F427" s="9" t="s">
         <v>355</v>
       </c>
@@ -10483,10 +10477,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="2"/>
-      <c r="B428" s="69"/>
-      <c r="C428" s="34"/>
-      <c r="D428" s="35"/>
-      <c r="E428" s="35"/>
+      <c r="B428" s="44"/>
+      <c r="C428" s="32"/>
+      <c r="D428" s="34"/>
+      <c r="E428" s="34"/>
       <c r="F428" s="9" t="s">
         <v>46</v>
       </c>
@@ -10496,16 +10490,16 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="2"/>
-      <c r="B429" s="33" t="s">
+      <c r="B429" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="C429" s="34" t="s">
+      <c r="C429" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="D429" s="35" t="s">
+      <c r="D429" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E429" s="35">
+      <c r="E429" s="34">
         <v>2</v>
       </c>
       <c r="F429" s="9" t="s">
@@ -10517,10 +10511,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="2"/>
-      <c r="B430" s="33"/>
-      <c r="C430" s="34"/>
-      <c r="D430" s="35"/>
-      <c r="E430" s="35"/>
+      <c r="B430" s="30"/>
+      <c r="C430" s="32"/>
+      <c r="D430" s="34"/>
+      <c r="E430" s="34"/>
       <c r="F430" s="9" t="s">
         <v>344</v>
       </c>
@@ -10530,10 +10524,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="2"/>
-      <c r="B431" s="33"/>
-      <c r="C431" s="34"/>
-      <c r="D431" s="35"/>
-      <c r="E431" s="35"/>
+      <c r="B431" s="30"/>
+      <c r="C431" s="32"/>
+      <c r="D431" s="34"/>
+      <c r="E431" s="34"/>
       <c r="F431" s="9" t="s">
         <v>75</v>
       </c>
@@ -10543,10 +10537,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="2"/>
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
-      <c r="E432" s="35"/>
+      <c r="B432" s="30"/>
+      <c r="C432" s="32"/>
+      <c r="D432" s="34"/>
+      <c r="E432" s="34"/>
       <c r="F432" s="9" t="s">
         <v>46</v>
       </c>
@@ -10556,16 +10550,16 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="2"/>
-      <c r="B433" s="69" t="s">
+      <c r="B433" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="C433" s="34" t="s">
+      <c r="C433" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D433" s="35" t="s">
+      <c r="D433" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E433" s="35">
+      <c r="E433" s="34">
         <v>1</v>
       </c>
       <c r="F433" s="9" t="s">
@@ -10577,10 +10571,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
-      <c r="B434" s="69"/>
-      <c r="C434" s="34"/>
-      <c r="D434" s="35"/>
-      <c r="E434" s="35"/>
+      <c r="B434" s="44"/>
+      <c r="C434" s="32"/>
+      <c r="D434" s="34"/>
+      <c r="E434" s="34"/>
       <c r="F434" s="9" t="s">
         <v>42</v>
       </c>
@@ -10590,10 +10584,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="2"/>
-      <c r="B435" s="69"/>
-      <c r="C435" s="34"/>
-      <c r="D435" s="35"/>
-      <c r="E435" s="35"/>
+      <c r="B435" s="44"/>
+      <c r="C435" s="32"/>
+      <c r="D435" s="34"/>
+      <c r="E435" s="34"/>
       <c r="F435" s="9" t="s">
         <v>82</v>
       </c>
@@ -10603,10 +10597,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="2"/>
-      <c r="B436" s="69"/>
-      <c r="C436" s="34"/>
-      <c r="D436" s="35"/>
-      <c r="E436" s="35"/>
+      <c r="B436" s="44"/>
+      <c r="C436" s="32"/>
+      <c r="D436" s="34"/>
+      <c r="E436" s="34"/>
       <c r="F436" s="9" t="s">
         <v>84</v>
       </c>
@@ -10616,10 +10610,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="2"/>
-      <c r="B437" s="69"/>
-      <c r="C437" s="34"/>
-      <c r="D437" s="35"/>
-      <c r="E437" s="35"/>
+      <c r="B437" s="44"/>
+      <c r="C437" s="32"/>
+      <c r="D437" s="34"/>
+      <c r="E437" s="34"/>
       <c r="F437" s="9" t="s">
         <v>352</v>
       </c>
@@ -10629,10 +10623,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="2"/>
-      <c r="B438" s="69"/>
-      <c r="C438" s="34"/>
-      <c r="D438" s="35"/>
-      <c r="E438" s="35"/>
+      <c r="B438" s="44"/>
+      <c r="C438" s="32"/>
+      <c r="D438" s="34"/>
+      <c r="E438" s="34"/>
       <c r="F438" s="9" t="s">
         <v>353</v>
       </c>
@@ -10642,10 +10636,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="2"/>
-      <c r="B439" s="69"/>
-      <c r="C439" s="34"/>
-      <c r="D439" s="35"/>
-      <c r="E439" s="35"/>
+      <c r="B439" s="44"/>
+      <c r="C439" s="32"/>
+      <c r="D439" s="34"/>
+      <c r="E439" s="34"/>
       <c r="F439" s="9" t="s">
         <v>355</v>
       </c>
@@ -10655,10 +10649,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="2"/>
-      <c r="B440" s="69"/>
-      <c r="C440" s="34"/>
-      <c r="D440" s="35"/>
-      <c r="E440" s="35"/>
+      <c r="B440" s="44"/>
+      <c r="C440" s="32"/>
+      <c r="D440" s="34"/>
+      <c r="E440" s="34"/>
       <c r="F440" s="9" t="s">
         <v>357</v>
       </c>
@@ -10668,10 +10662,10 @@
     </row>
     <row r="441" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A441" s="2"/>
-      <c r="B441" s="70"/>
-      <c r="C441" s="41"/>
-      <c r="D441" s="42"/>
-      <c r="E441" s="42"/>
+      <c r="B441" s="46"/>
+      <c r="C441" s="33"/>
+      <c r="D441" s="35"/>
+      <c r="E441" s="35"/>
       <c r="F441" s="20" t="s">
         <v>46</v>
       </c>
@@ -10745,7 +10739,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="2"/>
-      <c r="B446" s="73" t="s">
+      <c r="B446" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C446" s="26" t="s">
@@ -10766,16 +10760,16 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="2"/>
-      <c r="B447" s="33" t="s">
+      <c r="B447" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C447" s="38" t="s">
+      <c r="C447" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="D447" s="39" t="s">
+      <c r="D447" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E447" s="39">
+      <c r="E447" s="36">
         <v>2</v>
       </c>
       <c r="F447" s="9" t="s">
@@ -10787,10 +10781,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="2"/>
-      <c r="B448" s="33"/>
-      <c r="C448" s="38"/>
-      <c r="D448" s="39"/>
-      <c r="E448" s="39"/>
+      <c r="B448" s="30"/>
+      <c r="C448" s="43"/>
+      <c r="D448" s="36"/>
+      <c r="E448" s="36"/>
       <c r="F448" s="9" t="s">
         <v>60</v>
       </c>
@@ -10800,10 +10794,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="2"/>
-      <c r="B449" s="33"/>
-      <c r="C449" s="38"/>
-      <c r="D449" s="39"/>
-      <c r="E449" s="39"/>
+      <c r="B449" s="30"/>
+      <c r="C449" s="43"/>
+      <c r="D449" s="36"/>
+      <c r="E449" s="36"/>
       <c r="F449" s="9" t="s">
         <v>62</v>
       </c>
@@ -10813,10 +10807,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="2"/>
-      <c r="B450" s="33"/>
-      <c r="C450" s="38"/>
-      <c r="D450" s="39"/>
-      <c r="E450" s="39"/>
+      <c r="B450" s="30"/>
+      <c r="C450" s="43"/>
+      <c r="D450" s="36"/>
+      <c r="E450" s="36"/>
       <c r="F450" s="9" t="s">
         <v>64</v>
       </c>
@@ -10826,10 +10820,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="2"/>
-      <c r="B451" s="33"/>
-      <c r="C451" s="38"/>
-      <c r="D451" s="39"/>
-      <c r="E451" s="39"/>
+      <c r="B451" s="30"/>
+      <c r="C451" s="43"/>
+      <c r="D451" s="36"/>
+      <c r="E451" s="36"/>
       <c r="F451" s="9" t="s">
         <v>66</v>
       </c>
@@ -10839,10 +10833,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="2"/>
-      <c r="B452" s="33"/>
-      <c r="C452" s="38"/>
-      <c r="D452" s="39"/>
-      <c r="E452" s="39"/>
+      <c r="B452" s="30"/>
+      <c r="C452" s="43"/>
+      <c r="D452" s="36"/>
+      <c r="E452" s="36"/>
       <c r="F452" s="9" t="s">
         <v>68</v>
       </c>
@@ -10852,10 +10846,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="2"/>
-      <c r="B453" s="33"/>
-      <c r="C453" s="38"/>
-      <c r="D453" s="39"/>
-      <c r="E453" s="39"/>
+      <c r="B453" s="30"/>
+      <c r="C453" s="43"/>
+      <c r="D453" s="36"/>
+      <c r="E453" s="36"/>
       <c r="F453" s="9" t="s">
         <v>70</v>
       </c>
@@ -10865,10 +10859,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="2"/>
-      <c r="B454" s="33"/>
-      <c r="C454" s="38"/>
-      <c r="D454" s="39"/>
-      <c r="E454" s="39"/>
+      <c r="B454" s="30"/>
+      <c r="C454" s="43"/>
+      <c r="D454" s="36"/>
+      <c r="E454" s="36"/>
       <c r="F454" s="9" t="s">
         <v>71</v>
       </c>
@@ -10878,10 +10872,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="2"/>
-      <c r="B455" s="33"/>
-      <c r="C455" s="38"/>
-      <c r="D455" s="39"/>
-      <c r="E455" s="39"/>
+      <c r="B455" s="30"/>
+      <c r="C455" s="43"/>
+      <c r="D455" s="36"/>
+      <c r="E455" s="36"/>
       <c r="F455" s="9" t="s">
         <v>73</v>
       </c>
@@ -10891,10 +10885,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="2"/>
-      <c r="B456" s="33"/>
-      <c r="C456" s="38"/>
-      <c r="D456" s="39"/>
-      <c r="E456" s="39"/>
+      <c r="B456" s="30"/>
+      <c r="C456" s="43"/>
+      <c r="D456" s="36"/>
+      <c r="E456" s="36"/>
       <c r="F456" s="9" t="s">
         <v>129</v>
       </c>
@@ -10904,10 +10898,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="2"/>
-      <c r="B457" s="33"/>
-      <c r="C457" s="38"/>
-      <c r="D457" s="39"/>
-      <c r="E457" s="39"/>
+      <c r="B457" s="30"/>
+      <c r="C457" s="43"/>
+      <c r="D457" s="36"/>
+      <c r="E457" s="36"/>
       <c r="F457" s="9" t="s">
         <v>152</v>
       </c>
@@ -10917,10 +10911,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="2"/>
-      <c r="B458" s="33"/>
-      <c r="C458" s="38"/>
-      <c r="D458" s="39"/>
-      <c r="E458" s="39"/>
+      <c r="B458" s="30"/>
+      <c r="C458" s="43"/>
+      <c r="D458" s="36"/>
+      <c r="E458" s="36"/>
       <c r="F458" s="9" t="s">
         <v>154</v>
       </c>
@@ -10930,10 +10924,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="2"/>
-      <c r="B459" s="33"/>
-      <c r="C459" s="38"/>
-      <c r="D459" s="39"/>
-      <c r="E459" s="39"/>
+      <c r="B459" s="30"/>
+      <c r="C459" s="43"/>
+      <c r="D459" s="36"/>
+      <c r="E459" s="36"/>
       <c r="F459" s="9" t="s">
         <v>46</v>
       </c>
@@ -10943,16 +10937,16 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="2"/>
-      <c r="B460" s="33" t="s">
+      <c r="B460" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C460" s="38" t="s">
+      <c r="C460" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="D460" s="39" t="s">
+      <c r="D460" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E460" s="39">
+      <c r="E460" s="36">
         <v>1</v>
       </c>
       <c r="F460" s="9" t="s">
@@ -10964,10 +10958,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="2"/>
-      <c r="B461" s="33"/>
-      <c r="C461" s="38"/>
-      <c r="D461" s="39"/>
-      <c r="E461" s="39"/>
+      <c r="B461" s="30"/>
+      <c r="C461" s="43"/>
+      <c r="D461" s="36"/>
+      <c r="E461" s="36"/>
       <c r="F461" s="9" t="s">
         <v>86</v>
       </c>
@@ -10977,10 +10971,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="2"/>
-      <c r="B462" s="33"/>
-      <c r="C462" s="38"/>
-      <c r="D462" s="39"/>
-      <c r="E462" s="39"/>
+      <c r="B462" s="30"/>
+      <c r="C462" s="43"/>
+      <c r="D462" s="36"/>
+      <c r="E462" s="36"/>
       <c r="F462" s="9" t="s">
         <v>46</v>
       </c>
@@ -10990,16 +10984,16 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="2"/>
-      <c r="B463" s="33" t="s">
+      <c r="B463" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="C463" s="38" t="s">
+      <c r="C463" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="D463" s="39" t="s">
+      <c r="D463" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E463" s="39">
+      <c r="E463" s="36">
         <v>2</v>
       </c>
       <c r="F463" s="9" t="s">
@@ -11011,10 +11005,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="2"/>
-      <c r="B464" s="33"/>
-      <c r="C464" s="38"/>
-      <c r="D464" s="39"/>
-      <c r="E464" s="39"/>
+      <c r="B464" s="30"/>
+      <c r="C464" s="43"/>
+      <c r="D464" s="36"/>
+      <c r="E464" s="36"/>
       <c r="F464" s="9" t="s">
         <v>60</v>
       </c>
@@ -11024,10 +11018,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="2"/>
-      <c r="B465" s="33"/>
-      <c r="C465" s="38"/>
-      <c r="D465" s="39"/>
-      <c r="E465" s="39"/>
+      <c r="B465" s="30"/>
+      <c r="C465" s="43"/>
+      <c r="D465" s="36"/>
+      <c r="E465" s="36"/>
       <c r="F465" s="9" t="s">
         <v>62</v>
       </c>
@@ -11037,10 +11031,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="2"/>
-      <c r="B466" s="33"/>
-      <c r="C466" s="38"/>
-      <c r="D466" s="39"/>
-      <c r="E466" s="39"/>
+      <c r="B466" s="30"/>
+      <c r="C466" s="43"/>
+      <c r="D466" s="36"/>
+      <c r="E466" s="36"/>
       <c r="F466" s="9" t="s">
         <v>64</v>
       </c>
@@ -11050,10 +11044,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="2"/>
-      <c r="B467" s="33"/>
-      <c r="C467" s="38"/>
-      <c r="D467" s="39"/>
-      <c r="E467" s="39"/>
+      <c r="B467" s="30"/>
+      <c r="C467" s="43"/>
+      <c r="D467" s="36"/>
+      <c r="E467" s="36"/>
       <c r="F467" s="9" t="s">
         <v>66</v>
       </c>
@@ -11063,10 +11057,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="2"/>
-      <c r="B468" s="33"/>
-      <c r="C468" s="38"/>
-      <c r="D468" s="39"/>
-      <c r="E468" s="39"/>
+      <c r="B468" s="30"/>
+      <c r="C468" s="43"/>
+      <c r="D468" s="36"/>
+      <c r="E468" s="36"/>
       <c r="F468" s="9" t="s">
         <v>68</v>
       </c>
@@ -11076,10 +11070,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="2"/>
-      <c r="B469" s="33"/>
-      <c r="C469" s="38"/>
-      <c r="D469" s="39"/>
-      <c r="E469" s="39"/>
+      <c r="B469" s="30"/>
+      <c r="C469" s="43"/>
+      <c r="D469" s="36"/>
+      <c r="E469" s="36"/>
       <c r="F469" s="9" t="s">
         <v>70</v>
       </c>
@@ -11089,10 +11083,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="2"/>
-      <c r="B470" s="33"/>
-      <c r="C470" s="38"/>
-      <c r="D470" s="39"/>
-      <c r="E470" s="39"/>
+      <c r="B470" s="30"/>
+      <c r="C470" s="43"/>
+      <c r="D470" s="36"/>
+      <c r="E470" s="36"/>
       <c r="F470" s="9" t="s">
         <v>71</v>
       </c>
@@ -11102,10 +11096,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="2"/>
-      <c r="B471" s="33"/>
-      <c r="C471" s="38"/>
-      <c r="D471" s="39"/>
-      <c r="E471" s="39"/>
+      <c r="B471" s="30"/>
+      <c r="C471" s="43"/>
+      <c r="D471" s="36"/>
+      <c r="E471" s="36"/>
       <c r="F471" s="9" t="s">
         <v>73</v>
       </c>
@@ -11115,10 +11109,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="2"/>
-      <c r="B472" s="33"/>
-      <c r="C472" s="38"/>
-      <c r="D472" s="39"/>
-      <c r="E472" s="39"/>
+      <c r="B472" s="30"/>
+      <c r="C472" s="43"/>
+      <c r="D472" s="36"/>
+      <c r="E472" s="36"/>
       <c r="F472" s="9" t="s">
         <v>129</v>
       </c>
@@ -11128,10 +11122,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="2"/>
-      <c r="B473" s="33"/>
-      <c r="C473" s="38"/>
-      <c r="D473" s="39"/>
-      <c r="E473" s="39"/>
+      <c r="B473" s="30"/>
+      <c r="C473" s="43"/>
+      <c r="D473" s="36"/>
+      <c r="E473" s="36"/>
       <c r="F473" s="9" t="s">
         <v>152</v>
       </c>
@@ -11141,10 +11135,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="2"/>
-      <c r="B474" s="33"/>
-      <c r="C474" s="38"/>
-      <c r="D474" s="39"/>
-      <c r="E474" s="39"/>
+      <c r="B474" s="30"/>
+      <c r="C474" s="43"/>
+      <c r="D474" s="36"/>
+      <c r="E474" s="36"/>
       <c r="F474" s="9" t="s">
         <v>46</v>
       </c>
@@ -11154,16 +11148,16 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="2"/>
-      <c r="B475" s="33" t="s">
+      <c r="B475" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="C475" s="38" t="s">
+      <c r="C475" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="D475" s="39" t="s">
+      <c r="D475" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E475" s="39">
+      <c r="E475" s="36">
         <v>1</v>
       </c>
       <c r="F475" s="9" t="s">
@@ -11175,10 +11169,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="2"/>
-      <c r="B476" s="33"/>
-      <c r="C476" s="38"/>
-      <c r="D476" s="39"/>
-      <c r="E476" s="39"/>
+      <c r="B476" s="30"/>
+      <c r="C476" s="43"/>
+      <c r="D476" s="36"/>
+      <c r="E476" s="36"/>
       <c r="F476" s="9" t="s">
         <v>86</v>
       </c>
@@ -11188,10 +11182,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="2"/>
-      <c r="B477" s="33"/>
-      <c r="C477" s="38"/>
-      <c r="D477" s="39"/>
-      <c r="E477" s="39"/>
+      <c r="B477" s="30"/>
+      <c r="C477" s="43"/>
+      <c r="D477" s="36"/>
+      <c r="E477" s="36"/>
       <c r="F477" s="9" t="s">
         <v>46</v>
       </c>
@@ -11201,16 +11195,16 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="2"/>
-      <c r="B478" s="33" t="s">
+      <c r="B478" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="C478" s="38" t="s">
+      <c r="C478" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="D478" s="39" t="s">
+      <c r="D478" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E478" s="39">
+      <c r="E478" s="36">
         <v>1</v>
       </c>
       <c r="F478" s="9" t="s">
@@ -11222,10 +11216,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="2"/>
-      <c r="B479" s="33"/>
-      <c r="C479" s="38"/>
-      <c r="D479" s="39"/>
-      <c r="E479" s="39"/>
+      <c r="B479" s="30"/>
+      <c r="C479" s="43"/>
+      <c r="D479" s="36"/>
+      <c r="E479" s="36"/>
       <c r="F479" s="9" t="s">
         <v>40</v>
       </c>
@@ -11235,10 +11229,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="2"/>
-      <c r="B480" s="33"/>
-      <c r="C480" s="38"/>
-      <c r="D480" s="39"/>
-      <c r="E480" s="39"/>
+      <c r="B480" s="30"/>
+      <c r="C480" s="43"/>
+      <c r="D480" s="36"/>
+      <c r="E480" s="36"/>
       <c r="F480" s="9" t="s">
         <v>42</v>
       </c>
@@ -11248,10 +11242,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="2"/>
-      <c r="B481" s="33"/>
-      <c r="C481" s="38"/>
-      <c r="D481" s="39"/>
-      <c r="E481" s="39"/>
+      <c r="B481" s="30"/>
+      <c r="C481" s="43"/>
+      <c r="D481" s="36"/>
+      <c r="E481" s="36"/>
       <c r="F481" s="9" t="s">
         <v>82</v>
       </c>
@@ -11261,10 +11255,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="2"/>
-      <c r="B482" s="33"/>
-      <c r="C482" s="38"/>
-      <c r="D482" s="39"/>
-      <c r="E482" s="39"/>
+      <c r="B482" s="30"/>
+      <c r="C482" s="43"/>
+      <c r="D482" s="36"/>
+      <c r="E482" s="36"/>
       <c r="F482" s="9" t="s">
         <v>84</v>
       </c>
@@ -11274,10 +11268,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="2"/>
-      <c r="B483" s="33"/>
-      <c r="C483" s="38"/>
-      <c r="D483" s="39"/>
-      <c r="E483" s="39"/>
+      <c r="B483" s="30"/>
+      <c r="C483" s="43"/>
+      <c r="D483" s="36"/>
+      <c r="E483" s="36"/>
       <c r="F483" s="9" t="s">
         <v>352</v>
       </c>
@@ -11287,10 +11281,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="2"/>
-      <c r="B484" s="33"/>
-      <c r="C484" s="38"/>
-      <c r="D484" s="39"/>
-      <c r="E484" s="39"/>
+      <c r="B484" s="30"/>
+      <c r="C484" s="43"/>
+      <c r="D484" s="36"/>
+      <c r="E484" s="36"/>
       <c r="F484" s="9" t="s">
         <v>353</v>
       </c>
@@ -11300,10 +11294,10 @@
     </row>
     <row r="485" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A485" s="2"/>
-      <c r="B485" s="40"/>
-      <c r="C485" s="68"/>
-      <c r="D485" s="43"/>
-      <c r="E485" s="43"/>
+      <c r="B485" s="31"/>
+      <c r="C485" s="45"/>
+      <c r="D485" s="37"/>
+      <c r="E485" s="37"/>
       <c r="F485" s="20" t="s">
         <v>46</v>
       </c>
@@ -11657,6 +11651,370 @@
     </row>
   </sheetData>
   <mergeCells count="388">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D30:D39"/>
+    <mergeCell ref="E30:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B57:B69"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="D57:D69"/>
+    <mergeCell ref="E57:E69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="B87:B101"/>
+    <mergeCell ref="C87:C101"/>
+    <mergeCell ref="D87:D101"/>
+    <mergeCell ref="E87:E101"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="B150:B166"/>
+    <mergeCell ref="C150:C166"/>
+    <mergeCell ref="D150:D166"/>
+    <mergeCell ref="E150:E166"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="B173:B184"/>
+    <mergeCell ref="C173:C184"/>
+    <mergeCell ref="D173:D184"/>
+    <mergeCell ref="E173:E184"/>
+    <mergeCell ref="B185:B196"/>
+    <mergeCell ref="C185:C196"/>
+    <mergeCell ref="D185:D196"/>
+    <mergeCell ref="E185:E196"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="D205:D207"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="D210:D214"/>
+    <mergeCell ref="E210:E214"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="E221:E224"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="D225:D228"/>
+    <mergeCell ref="E225:E228"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="E217:E220"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="E237:E240"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="C241:C244"/>
+    <mergeCell ref="D241:D244"/>
+    <mergeCell ref="E241:E244"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="C229:C232"/>
+    <mergeCell ref="D229:D232"/>
+    <mergeCell ref="E229:E232"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="C233:C236"/>
+    <mergeCell ref="D233:D236"/>
+    <mergeCell ref="E233:E236"/>
+    <mergeCell ref="B253:B255"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="D253:D255"/>
+    <mergeCell ref="E253:E255"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="D256:D258"/>
+    <mergeCell ref="E256:E258"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="C245:C248"/>
+    <mergeCell ref="D245:D248"/>
+    <mergeCell ref="E245:E248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="C249:C252"/>
+    <mergeCell ref="D249:D252"/>
+    <mergeCell ref="E249:E252"/>
+    <mergeCell ref="B265:B267"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="D265:D267"/>
+    <mergeCell ref="E265:E267"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="D268:D270"/>
+    <mergeCell ref="E268:E270"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="D259:D261"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="B262:B264"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="D262:D264"/>
+    <mergeCell ref="E262:E264"/>
+    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="D277:D279"/>
+    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="B280:B282"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="E280:E282"/>
+    <mergeCell ref="B271:B273"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="D271:D273"/>
+    <mergeCell ref="E271:E273"/>
+    <mergeCell ref="B274:B276"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="D274:D276"/>
+    <mergeCell ref="E274:E276"/>
+    <mergeCell ref="B289:B291"/>
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="D289:D291"/>
+    <mergeCell ref="E289:E291"/>
+    <mergeCell ref="B292:B294"/>
+    <mergeCell ref="C292:C294"/>
+    <mergeCell ref="D292:D294"/>
+    <mergeCell ref="E292:E294"/>
+    <mergeCell ref="B283:B285"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="E283:E285"/>
+    <mergeCell ref="B286:B288"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="D286:D288"/>
+    <mergeCell ref="E286:E288"/>
+    <mergeCell ref="B301:B303"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="E301:E303"/>
+    <mergeCell ref="B304:B306"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="E304:E306"/>
+    <mergeCell ref="B295:B297"/>
+    <mergeCell ref="C295:C297"/>
+    <mergeCell ref="D295:D297"/>
+    <mergeCell ref="E295:E297"/>
+    <mergeCell ref="B298:B300"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="D298:D300"/>
+    <mergeCell ref="E298:E300"/>
+    <mergeCell ref="B313:B315"/>
+    <mergeCell ref="C313:C315"/>
+    <mergeCell ref="D313:D315"/>
+    <mergeCell ref="E313:E315"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="C316:C320"/>
+    <mergeCell ref="D316:D320"/>
+    <mergeCell ref="E316:E320"/>
+    <mergeCell ref="B307:B309"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="E307:E309"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="E310:E312"/>
+    <mergeCell ref="B334:B336"/>
+    <mergeCell ref="C334:C336"/>
+    <mergeCell ref="D334:D336"/>
+    <mergeCell ref="E334:E336"/>
+    <mergeCell ref="B337:B339"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="D337:D339"/>
+    <mergeCell ref="E337:E339"/>
+    <mergeCell ref="B321:B330"/>
+    <mergeCell ref="C321:C330"/>
+    <mergeCell ref="D321:D330"/>
+    <mergeCell ref="E321:E330"/>
+    <mergeCell ref="B331:B333"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="D331:D333"/>
+    <mergeCell ref="E331:E333"/>
+    <mergeCell ref="B350:B352"/>
+    <mergeCell ref="C350:C352"/>
+    <mergeCell ref="D350:D352"/>
+    <mergeCell ref="E350:E352"/>
+    <mergeCell ref="B353:B355"/>
+    <mergeCell ref="C353:C355"/>
+    <mergeCell ref="D353:D355"/>
+    <mergeCell ref="E353:E355"/>
+    <mergeCell ref="B340:B342"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="D340:D342"/>
+    <mergeCell ref="E340:E342"/>
+    <mergeCell ref="B343:B345"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="D343:D345"/>
+    <mergeCell ref="E343:E345"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="D381:D382"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="B383:B385"/>
+    <mergeCell ref="C383:C385"/>
+    <mergeCell ref="D383:D385"/>
+    <mergeCell ref="E383:E385"/>
+    <mergeCell ref="B356:B367"/>
+    <mergeCell ref="C356:C367"/>
+    <mergeCell ref="D356:D367"/>
+    <mergeCell ref="E356:E367"/>
+    <mergeCell ref="B368:B380"/>
+    <mergeCell ref="C368:C380"/>
+    <mergeCell ref="D368:D380"/>
+    <mergeCell ref="E368:E380"/>
+    <mergeCell ref="B404:B407"/>
+    <mergeCell ref="C404:C407"/>
+    <mergeCell ref="D404:D407"/>
+    <mergeCell ref="E404:E407"/>
+    <mergeCell ref="B408:B413"/>
+    <mergeCell ref="C408:C413"/>
+    <mergeCell ref="D408:D413"/>
+    <mergeCell ref="E408:E413"/>
+    <mergeCell ref="B386:B388"/>
+    <mergeCell ref="C386:C388"/>
+    <mergeCell ref="D386:D388"/>
+    <mergeCell ref="E386:E388"/>
+    <mergeCell ref="B389:B403"/>
+    <mergeCell ref="C389:C403"/>
+    <mergeCell ref="D389:D403"/>
+    <mergeCell ref="E389:E403"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="C429:C432"/>
+    <mergeCell ref="D429:D432"/>
+    <mergeCell ref="E429:E432"/>
+    <mergeCell ref="B433:B441"/>
+    <mergeCell ref="C433:C441"/>
+    <mergeCell ref="D433:D441"/>
+    <mergeCell ref="E433:E441"/>
+    <mergeCell ref="B418:B420"/>
+    <mergeCell ref="C418:C420"/>
+    <mergeCell ref="D418:D420"/>
+    <mergeCell ref="E418:E420"/>
+    <mergeCell ref="B421:B428"/>
+    <mergeCell ref="C421:C428"/>
+    <mergeCell ref="D421:D428"/>
+    <mergeCell ref="E421:E428"/>
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="C81:C83"/>
     <mergeCell ref="D81:D83"/>
@@ -11681,370 +12039,6 @@
     <mergeCell ref="C460:C462"/>
     <mergeCell ref="D460:D462"/>
     <mergeCell ref="E460:E462"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="C429:C432"/>
-    <mergeCell ref="D429:D432"/>
-    <mergeCell ref="E429:E432"/>
-    <mergeCell ref="B433:B441"/>
-    <mergeCell ref="C433:C441"/>
-    <mergeCell ref="D433:D441"/>
-    <mergeCell ref="E433:E441"/>
-    <mergeCell ref="B418:B420"/>
-    <mergeCell ref="C418:C420"/>
-    <mergeCell ref="D418:D420"/>
-    <mergeCell ref="E418:E420"/>
-    <mergeCell ref="B421:B428"/>
-    <mergeCell ref="C421:C428"/>
-    <mergeCell ref="D421:D428"/>
-    <mergeCell ref="E421:E428"/>
-    <mergeCell ref="B404:B407"/>
-    <mergeCell ref="C404:C407"/>
-    <mergeCell ref="D404:D407"/>
-    <mergeCell ref="E404:E407"/>
-    <mergeCell ref="B408:B413"/>
-    <mergeCell ref="C408:C413"/>
-    <mergeCell ref="D408:D413"/>
-    <mergeCell ref="E408:E413"/>
-    <mergeCell ref="B386:B388"/>
-    <mergeCell ref="C386:C388"/>
-    <mergeCell ref="D386:D388"/>
-    <mergeCell ref="E386:E388"/>
-    <mergeCell ref="B389:B403"/>
-    <mergeCell ref="C389:C403"/>
-    <mergeCell ref="D389:D403"/>
-    <mergeCell ref="E389:E403"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="C381:C382"/>
-    <mergeCell ref="D381:D382"/>
-    <mergeCell ref="E381:E382"/>
-    <mergeCell ref="B383:B385"/>
-    <mergeCell ref="C383:C385"/>
-    <mergeCell ref="D383:D385"/>
-    <mergeCell ref="E383:E385"/>
-    <mergeCell ref="B356:B367"/>
-    <mergeCell ref="C356:C367"/>
-    <mergeCell ref="D356:D367"/>
-    <mergeCell ref="E356:E367"/>
-    <mergeCell ref="B368:B380"/>
-    <mergeCell ref="C368:C380"/>
-    <mergeCell ref="D368:D380"/>
-    <mergeCell ref="E368:E380"/>
-    <mergeCell ref="B350:B352"/>
-    <mergeCell ref="C350:C352"/>
-    <mergeCell ref="D350:D352"/>
-    <mergeCell ref="E350:E352"/>
-    <mergeCell ref="B353:B355"/>
-    <mergeCell ref="C353:C355"/>
-    <mergeCell ref="D353:D355"/>
-    <mergeCell ref="E353:E355"/>
-    <mergeCell ref="B340:B342"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="D340:D342"/>
-    <mergeCell ref="E340:E342"/>
-    <mergeCell ref="B343:B345"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="D343:D345"/>
-    <mergeCell ref="E343:E345"/>
-    <mergeCell ref="B334:B336"/>
-    <mergeCell ref="C334:C336"/>
-    <mergeCell ref="D334:D336"/>
-    <mergeCell ref="E334:E336"/>
-    <mergeCell ref="B337:B339"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="D337:D339"/>
-    <mergeCell ref="E337:E339"/>
-    <mergeCell ref="B321:B330"/>
-    <mergeCell ref="C321:C330"/>
-    <mergeCell ref="D321:D330"/>
-    <mergeCell ref="E321:E330"/>
-    <mergeCell ref="B331:B333"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="D331:D333"/>
-    <mergeCell ref="E331:E333"/>
-    <mergeCell ref="B313:B315"/>
-    <mergeCell ref="C313:C315"/>
-    <mergeCell ref="D313:D315"/>
-    <mergeCell ref="E313:E315"/>
-    <mergeCell ref="B316:B320"/>
-    <mergeCell ref="C316:C320"/>
-    <mergeCell ref="D316:D320"/>
-    <mergeCell ref="E316:E320"/>
-    <mergeCell ref="B307:B309"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="E307:E309"/>
-    <mergeCell ref="B310:B312"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="E310:E312"/>
-    <mergeCell ref="B301:B303"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="E301:E303"/>
-    <mergeCell ref="B304:B306"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="E304:E306"/>
-    <mergeCell ref="B295:B297"/>
-    <mergeCell ref="C295:C297"/>
-    <mergeCell ref="D295:D297"/>
-    <mergeCell ref="E295:E297"/>
-    <mergeCell ref="B298:B300"/>
-    <mergeCell ref="C298:C300"/>
-    <mergeCell ref="D298:D300"/>
-    <mergeCell ref="E298:E300"/>
-    <mergeCell ref="B289:B291"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="D289:D291"/>
-    <mergeCell ref="E289:E291"/>
-    <mergeCell ref="B292:B294"/>
-    <mergeCell ref="C292:C294"/>
-    <mergeCell ref="D292:D294"/>
-    <mergeCell ref="E292:E294"/>
-    <mergeCell ref="B283:B285"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="E283:E285"/>
-    <mergeCell ref="B286:B288"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="D286:D288"/>
-    <mergeCell ref="E286:E288"/>
-    <mergeCell ref="B277:B279"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="D277:D279"/>
-    <mergeCell ref="E277:E279"/>
-    <mergeCell ref="B280:B282"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="E280:E282"/>
-    <mergeCell ref="B271:B273"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="D271:D273"/>
-    <mergeCell ref="E271:E273"/>
-    <mergeCell ref="B274:B276"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="D274:D276"/>
-    <mergeCell ref="E274:E276"/>
-    <mergeCell ref="B265:B267"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="D265:D267"/>
-    <mergeCell ref="E265:E267"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="D268:D270"/>
-    <mergeCell ref="E268:E270"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="D259:D261"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="B262:B264"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="D262:D264"/>
-    <mergeCell ref="E262:E264"/>
-    <mergeCell ref="B253:B255"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="D253:D255"/>
-    <mergeCell ref="E253:E255"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="D256:D258"/>
-    <mergeCell ref="E256:E258"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="C245:C248"/>
-    <mergeCell ref="D245:D248"/>
-    <mergeCell ref="E245:E248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="C249:C252"/>
-    <mergeCell ref="D249:D252"/>
-    <mergeCell ref="E249:E252"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="E237:E240"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="C241:C244"/>
-    <mergeCell ref="D241:D244"/>
-    <mergeCell ref="E241:E244"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="C229:C232"/>
-    <mergeCell ref="D229:D232"/>
-    <mergeCell ref="E229:E232"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="C233:C236"/>
-    <mergeCell ref="D233:D236"/>
-    <mergeCell ref="E233:E236"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="E221:E224"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="D225:D228"/>
-    <mergeCell ref="E225:E228"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="C217:C220"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="E217:E220"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="D205:D207"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="D210:D214"/>
-    <mergeCell ref="E210:E214"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="B173:B184"/>
-    <mergeCell ref="C173:C184"/>
-    <mergeCell ref="D173:D184"/>
-    <mergeCell ref="E173:E184"/>
-    <mergeCell ref="B185:B196"/>
-    <mergeCell ref="C185:C196"/>
-    <mergeCell ref="D185:D196"/>
-    <mergeCell ref="E185:E196"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="B150:B166"/>
-    <mergeCell ref="C150:C166"/>
-    <mergeCell ref="D150:D166"/>
-    <mergeCell ref="E150:E166"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="E137:E139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="B87:B101"/>
-    <mergeCell ref="C87:C101"/>
-    <mergeCell ref="D87:D101"/>
-    <mergeCell ref="E87:E101"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B57:B69"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="D57:D69"/>
-    <mergeCell ref="E57:E69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D30:D39"/>
-    <mergeCell ref="E30:E39"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
